--- a/data.xlsx
+++ b/data.xlsx
@@ -2675,6 +2675,7 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:J38"/>
   </ignoredErrors>

--- a/data.xlsx
+++ b/data.xlsx
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
+        <v>s 10:57</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>cerah</v>
       </c>
     </row>
     <row r="8">
@@ -632,22 +632,22 @@
         <v>Jumat 26/09/2025 12:00</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" t="str">
-        <v>Cerah Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E8" t="str">
-        <v>E (118°)</v>
+        <v>E (115°)</v>
       </c>
       <c r="F8">
-        <v>15.8</v>
+        <v>12.2</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="str">
         <v/>
@@ -734,16 +734,16 @@
         <v>69</v>
       </c>
       <c r="D11" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E11" t="str">
-        <v>E (113°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F11">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="G11">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -827,19 +827,19 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="str">
         <v>Berawan</v>
       </c>
       <c r="E14" t="str">
-        <v>E (125°)</v>
+        <v>E (102°)</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -923,19 +923,19 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E17" t="str">
-        <v>NE (81°)</v>
+        <v>E (100°)</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1019,19 +1019,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E20" t="str">
-        <v>E (122°)</v>
+        <v>SE (170°)</v>
       </c>
       <c r="F20">
-        <v>14.3</v>
+        <v>18.5</v>
       </c>
       <c r="G20">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1112,22 +1112,22 @@
         <v>Sabtu 27/09/2025 15:00</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E23" t="str">
-        <v>E (122°)</v>
+        <v>E (120°)</v>
       </c>
       <c r="F23">
-        <v>14.3</v>
+        <v>9.4</v>
       </c>
       <c r="G23">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1217,13 +1217,13 @@
         <v>Cerah Berawan</v>
       </c>
       <c r="E26" t="str">
-        <v>NE (88°)</v>
+        <v>E (120°)</v>
       </c>
       <c r="F26">
-        <v>8.7</v>
+        <v>9.2</v>
       </c>
       <c r="G26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="str">
         <v/>
@@ -1291,11 +1291,23 @@
       <c r="A29" t="str">
         <v>Minggu 28/09/2025 09:00</v>
       </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>72</v>
+      </c>
       <c r="D29" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>N (40°)</v>
+      </c>
+      <c r="F29">
+        <v>10.5</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1357,11 +1369,23 @@
       <c r="A32" t="str">
         <v>Minggu 28/09/2025 12:00</v>
       </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>66</v>
+      </c>
       <c r="D32" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>E (112°)</v>
+      </c>
+      <c r="F32">
+        <v>16.7</v>
+      </c>
+      <c r="G32">
+        <v>0.7</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -1423,11 +1447,23 @@
       <c r="A35" t="str">
         <v>Minggu 28/09/2025 15:00</v>
       </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>71</v>
+      </c>
       <c r="D35" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>E (112°)</v>
+      </c>
+      <c r="F35">
+        <v>16.7</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -1489,11 +1525,23 @@
       <c r="A38" t="str">
         <v>Minggu 28/09/2025 18:00</v>
       </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>82</v>
+      </c>
       <c r="D38" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>E (103°)</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -760,13 +760,13 @@
         <v>Jumat 26/09/2025 16:00</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E12" t="str">
         <v>E (114°)</v>
@@ -775,7 +775,7 @@
         <v>12.9</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -856,22 +856,22 @@
         <v>Sabtu 27/09/2025 07:00</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D15" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E15" t="str">
-        <v>E (96°)</v>
+        <v>NE (50°)</v>
       </c>
       <c r="F15">
-        <v>17.2</v>
+        <v>13.9</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -952,22 +952,22 @@
         <v>Sabtu 27/09/2025 10:00</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D18" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E18" t="str">
-        <v>E (101°)</v>
+        <v>E (100°)</v>
       </c>
       <c r="F18">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="G18">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1051,19 +1051,19 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D21" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E21" t="str">
-        <v>E (120°)</v>
+        <v>SE (170°)</v>
       </c>
       <c r="F21">
-        <v>14.8</v>
+        <v>18.5</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1144,22 +1144,22 @@
         <v>Sabtu 27/09/2025 16:00</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E24" t="str">
-        <v>E (116°)</v>
+        <v>E (120°)</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1240,19 +1240,19 @@
         <v>Minggu 28/09/2025 07:00</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E27" t="str">
-        <v>E (96°)</v>
+        <v>N (40°)</v>
       </c>
       <c r="F27">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1318,22 +1318,22 @@
         <v>Minggu 28/09/2025 10:00</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E30" t="str">
-        <v>E (96°)</v>
+        <v>N (40°)</v>
       </c>
       <c r="F30">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="G30">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -1396,13 +1396,13 @@
         <v>Minggu 28/09/2025 13:00</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E33" t="str">
         <v>E (112°)</v>
@@ -1411,7 +1411,7 @@
         <v>16.7</v>
       </c>
       <c r="G33">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="str">
         <v>Berawan</v>
@@ -1489,7 +1489,7 @@
         <v>16.7</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -856,22 +856,22 @@
         <v>Sabtu 27/09/2025 07:00</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D15" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E15" t="str">
-        <v>NE (50°)</v>
+        <v>E (99°)</v>
       </c>
       <c r="F15">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="G15">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -891,19 +891,19 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" t="str">
-        <v>Cerah Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E16" t="str">
-        <v>NE (50°)</v>
+        <v>E (99°)</v>
       </c>
       <c r="F16">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -955,19 +955,19 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E18" t="str">
-        <v>E (100°)</v>
+        <v>E (108°)</v>
       </c>
       <c r="F18">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -987,19 +987,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E19" t="str">
-        <v>E (100°)</v>
+        <v>E (108°)</v>
       </c>
       <c r="F19">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="G19">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1051,19 +1051,19 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E21" t="str">
-        <v>SE (170°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F21">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1080,22 +1080,22 @@
         <v>Sabtu 27/09/2025 14:00</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E22" t="str">
-        <v>SE (170°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F22">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1147,19 +1147,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E24" t="str">
-        <v>E (120°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F24">
-        <v>9.4</v>
+        <v>12.1</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1179,16 +1179,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" t="str">
-        <v>Cerah Berawan</v>
+        <v>Petir</v>
       </c>
       <c r="E25" t="str">
-        <v>E (120°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F25">
-        <v>9.4</v>
+        <v>12.1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1240,19 +1240,19 @@
         <v>Minggu 28/09/2025 07:00</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D27" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E27" t="str">
-        <v>N (40°)</v>
+        <v>E (90°)</v>
       </c>
       <c r="F27">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>Minggu 28/09/2025 08:00</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E28" t="str">
-        <v>N (40°)</v>
+        <v>E (90°)</v>
       </c>
       <c r="F28">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="G28">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1318,22 +1318,22 @@
         <v>Minggu 28/09/2025 10:00</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>69</v>
       </c>
       <c r="D30" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E30" t="str">
-        <v>N (40°)</v>
+        <v>E (103°)</v>
       </c>
       <c r="F30">
-        <v>10.5</v>
+        <v>17.9</v>
       </c>
       <c r="G30">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -1347,19 +1347,19 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D31" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E31" t="str">
-        <v>E (112°)</v>
+        <v>E (103°)</v>
       </c>
       <c r="F31">
-        <v>16.7</v>
+        <v>17.9</v>
       </c>
       <c r="G31">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -1396,22 +1396,22 @@
         <v>Minggu 28/09/2025 13:00</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E33" t="str">
-        <v>E (112°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F33">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="G33">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -1425,19 +1425,19 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E34" t="str">
-        <v>E (112°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F34">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -1474,22 +1474,22 @@
         <v>Minggu 28/09/2025 16:00</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D36" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E36" t="str">
-        <v>E (112°)</v>
+        <v>E (105°)</v>
       </c>
       <c r="F36">
-        <v>16.7</v>
+        <v>14.1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -1503,16 +1503,16 @@
         <v>28</v>
       </c>
       <c r="C37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" t="str">
         <v>Berawan</v>
       </c>
       <c r="E37" t="str">
-        <v>E (103°)</v>
+        <v>E (105°)</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>14.1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1685,6 +1685,306 @@
         <v/>
       </c>
       <c r="J62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Senin 29/09/2025 07:00</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>92</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E63" t="str">
+        <v>N (31°)</v>
+      </c>
+      <c r="F63">
+        <v>9.2</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Senin 29/09/2025 08:00</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>83</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E64" t="str">
+        <v>N (31°)</v>
+      </c>
+      <c r="F64">
+        <v>9.2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Senin 29/09/2025 09:00</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Senin 29/09/2025 10:00</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Senin 29/09/2025 11:00</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>69</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E67" t="str">
+        <v>S (206°)</v>
+      </c>
+      <c r="F67">
+        <v>9.8</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Senin 29/09/2025 12:00</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Senin 29/09/2025 13:00</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Senin 29/09/2025 14:00</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>88</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E70" t="str">
+        <v>S (206°)</v>
+      </c>
+      <c r="F70">
+        <v>9.8</v>
+      </c>
+      <c r="G70">
+        <v>0.3</v>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Senin 29/09/2025 15:00</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Senin 29/09/2025 16:00</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Senin 29/09/2025 17:00</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>91</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Petir</v>
+      </c>
+      <c r="E73" t="str">
+        <v>NE (50°)</v>
+      </c>
+      <c r="F73">
+        <v>1.8</v>
+      </c>
+      <c r="G73">
+        <v>0.3</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Senin 29/09/2025 18:00</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
         <v/>
       </c>
     </row>
@@ -1694,7 +1994,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J74"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -920,22 +920,22 @@
         <v>Sabtu 27/09/2025 09:00</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E17" t="str">
-        <v>E (100°)</v>
+        <v>E (108°)</v>
       </c>
       <c r="F17">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1019,19 +1019,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E20" t="str">
-        <v>SE (170°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F20">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1112,22 +1112,22 @@
         <v>Sabtu 27/09/2025 15:00</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>72</v>
       </c>
       <c r="D23" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E23" t="str">
-        <v>E (120°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F23">
-        <v>9.4</v>
+        <v>12.1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1211,16 +1211,16 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E26" t="str">
-        <v>E (120°)</v>
+        <v>NE (79°)</v>
       </c>
       <c r="F26">
-        <v>9.2</v>
+        <v>7.8</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         <v>Minggu 28/09/2025 09:00</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E29" t="str">
-        <v>N (40°)</v>
+        <v>E (103°)</v>
       </c>
       <c r="F29">
-        <v>10.5</v>
+        <v>17.9</v>
       </c>
       <c r="G29">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1370,22 +1370,22 @@
         <v>Minggu 28/09/2025 12:00</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D32" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E32" t="str">
-        <v>E (112°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F32">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="G32">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -1448,22 +1448,22 @@
         <v>Minggu 28/09/2025 15:00</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D35" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E35" t="str">
-        <v>E (112°)</v>
+        <v>E (105°)</v>
       </c>
       <c r="F35">
-        <v>16.7</v>
+        <v>14.1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -1529,16 +1529,16 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" t="str">
         <v>Berawan</v>
       </c>
       <c r="E38" t="str">
-        <v>E (103°)</v>
+        <v>NE (78°)</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>8.8</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1756,11 +1756,23 @@
       <c r="A65" t="str">
         <v>Senin 29/09/2025 09:00</v>
       </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>76</v>
+      </c>
       <c r="D65" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E65" t="str">
-        <v/>
+        <v>N (31°)</v>
+      </c>
+      <c r="F65">
+        <v>9.2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -1828,11 +1840,23 @@
       <c r="A68" t="str">
         <v>Senin 29/09/2025 12:00</v>
       </c>
+      <c r="B68">
+        <v>31</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
       <c r="D68" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E68" t="str">
-        <v/>
+        <v>S (206°)</v>
+      </c>
+      <c r="F68">
+        <v>9.8</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -1900,11 +1924,23 @@
       <c r="A71" t="str">
         <v>Senin 29/09/2025 15:00</v>
       </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>89</v>
+      </c>
       <c r="D71" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E71" t="str">
-        <v/>
+        <v>S (206°)</v>
+      </c>
+      <c r="F71">
+        <v>9.8</v>
+      </c>
+      <c r="G71">
+        <v>0.3</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -1972,11 +2008,23 @@
       <c r="A74" t="str">
         <v>Senin 29/09/2025 18:00</v>
       </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>95</v>
+      </c>
       <c r="D74" t="str">
-        <v>Tidak ada data</v>
+        <v>Petir</v>
       </c>
       <c r="E74" t="str">
-        <v/>
+        <v>NE (50°)</v>
+      </c>
+      <c r="F74">
+        <v>1.8</v>
+      </c>
+      <c r="G74">
+        <v>0.3</v>
       </c>
       <c r="H74" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1016,22 +1016,22 @@
         <v>Sabtu 27/09/2025 12:00</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="str">
         <v>Berawan</v>
       </c>
       <c r="E20" t="str">
-        <v>E (114°)</v>
+        <v>E (111°)</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1112,22 +1112,22 @@
         <v>Sabtu 27/09/2025 15:00</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="str">
-        <v>Hujan Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E23" t="str">
-        <v>E (106°)</v>
+        <v>E (94°)</v>
       </c>
       <c r="F23">
-        <v>12.1</v>
+        <v>14.2</v>
       </c>
       <c r="G23">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1208,19 +1208,19 @@
         <v>Sabtu 27/09/2025 18:00</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D26" t="str">
         <v>Berawan</v>
       </c>
       <c r="E26" t="str">
-        <v>NE (79°)</v>
+        <v>NE (75°)</v>
       </c>
       <c r="F26">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" t="str">
-        <v>Cerah Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E29" t="str">
-        <v>E (103°)</v>
+        <v>E (100°)</v>
       </c>
       <c r="F29">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="G29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1370,22 +1370,22 @@
         <v>Minggu 28/09/2025 12:00</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D32" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E32" t="str">
-        <v>E (104°)</v>
+        <v>E (110°)</v>
       </c>
       <c r="F32">
-        <v>15.2</v>
+        <v>17.6</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="str">
         <v/>
@@ -1448,22 +1448,22 @@
         <v>Minggu 28/09/2025 15:00</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E35" t="str">
-        <v>E (105°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F35">
-        <v>14.1</v>
+        <v>16.6</v>
       </c>
       <c r="G35">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -1529,19 +1529,19 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" t="str">
         <v>Berawan</v>
       </c>
       <c r="E38" t="str">
-        <v>NE (78°)</v>
+        <v>E (92°)</v>
       </c>
       <c r="F38">
-        <v>8.8</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -1757,22 +1757,22 @@
         <v>Senin 29/09/2025 09:00</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D65" t="str">
         <v>Berawan</v>
       </c>
       <c r="E65" t="str">
-        <v>N (31°)</v>
+        <v>N (6°)</v>
       </c>
       <c r="F65">
-        <v>9.2</v>
+        <v>6.5</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -1841,22 +1841,22 @@
         <v>Senin 29/09/2025 12:00</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D68" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E68" t="str">
-        <v>S (206°)</v>
+        <v>SE (160°)</v>
       </c>
       <c r="F68">
-        <v>9.8</v>
+        <v>10.4</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -1925,22 +1925,22 @@
         <v>Senin 29/09/2025 15:00</v>
       </c>
       <c r="B71">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C71">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D71" t="str">
         <v>Berawan</v>
       </c>
       <c r="E71" t="str">
-        <v>S (206°)</v>
+        <v>SE (160°)</v>
       </c>
       <c r="F71">
-        <v>9.8</v>
+        <v>10.4</v>
       </c>
       <c r="G71">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -2009,22 +2009,22 @@
         <v>Senin 29/09/2025 18:00</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D74" t="str">
-        <v>Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E74" t="str">
-        <v>NE (50°)</v>
+        <v>NE (80°)</v>
       </c>
       <c r="F74">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="G74">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H74" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1048,22 +1048,22 @@
         <v>Sabtu 27/09/2025 13:00</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" t="str">
         <v>Berawan</v>
       </c>
       <c r="E21" t="str">
-        <v>E (114°)</v>
+        <v>E (111°)</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1144,22 +1144,22 @@
         <v>Sabtu 27/09/2025 16:00</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D24" t="str">
-        <v>Hujan Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E24" t="str">
-        <v>E (106°)</v>
+        <v>E (94°)</v>
       </c>
       <c r="F24">
-        <v>12.1</v>
+        <v>14.2</v>
       </c>
       <c r="G24">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1243,16 +1243,16 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="str">
-        <v>Cerah Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E27" t="str">
-        <v>E (90°)</v>
+        <v>E (91°)</v>
       </c>
       <c r="F27">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1327,13 +1327,13 @@
         <v>Berawan</v>
       </c>
       <c r="E30" t="str">
-        <v>E (103°)</v>
+        <v>E (100°)</v>
       </c>
       <c r="F30">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="G30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -1396,22 +1396,22 @@
         <v>Minggu 28/09/2025 13:00</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>70</v>
       </c>
       <c r="D33" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E33" t="str">
-        <v>E (104°)</v>
+        <v>E (110°)</v>
       </c>
       <c r="F33">
-        <v>15.2</v>
+        <v>17.6</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -1477,19 +1477,19 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E36" t="str">
-        <v>E (105°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F36">
-        <v>14.1</v>
+        <v>16.6</v>
       </c>
       <c r="G36">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -1693,22 +1693,22 @@
         <v>Senin 29/09/2025 07:00</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D63" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E63" t="str">
-        <v>N (31°)</v>
+        <v>N (6°)</v>
       </c>
       <c r="F63">
-        <v>9.2</v>
+        <v>6.5</v>
       </c>
       <c r="G63">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -1788,11 +1788,23 @@
       <c r="A66" t="str">
         <v>Senin 29/09/2025 10:00</v>
       </c>
+      <c r="B66">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>71</v>
+      </c>
       <c r="D66" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E66" t="str">
-        <v/>
+        <v>N (6°)</v>
+      </c>
+      <c r="F66">
+        <v>6.5</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -1872,11 +1884,23 @@
       <c r="A69" t="str">
         <v>Senin 29/09/2025 13:00</v>
       </c>
+      <c r="B69">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>70</v>
+      </c>
       <c r="D69" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E69" t="str">
-        <v/>
+        <v>SE (160°)</v>
+      </c>
+      <c r="F69">
+        <v>10.4</v>
+      </c>
+      <c r="G69">
+        <v>0.1</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -1956,11 +1980,23 @@
       <c r="A72" t="str">
         <v>Senin 29/09/2025 16:00</v>
       </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
       <c r="D72" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E72" t="str">
-        <v/>
+        <v>SE (160°)</v>
+      </c>
+      <c r="F72">
+        <v>10.4</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
       </c>
       <c r="H72" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1243,16 +1243,16 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E27" t="str">
-        <v>E (91°)</v>
+        <v>NE (83°)</v>
       </c>
       <c r="F27">
-        <v>12.6</v>
+        <v>8.8</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1321,16 +1321,16 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E30" t="str">
-        <v>E (100°)</v>
+        <v>E (115°)</v>
       </c>
       <c r="F30">
-        <v>17.6</v>
+        <v>15.5</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>Minggu 28/09/2025 13:00</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>70</v>
@@ -1405,10 +1405,10 @@
         <v>Hujan Ringan</v>
       </c>
       <c r="E33" t="str">
-        <v>E (110°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F33">
-        <v>17.6</v>
+        <v>15.5</v>
       </c>
       <c r="G33">
         <v>1.3</v>
@@ -1474,22 +1474,22 @@
         <v>Minggu 28/09/2025 16:00</v>
       </c>
       <c r="B36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E36" t="str">
-        <v>E (106°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F36">
-        <v>16.6</v>
+        <v>13.9</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -1696,19 +1696,19 @@
         <v>24</v>
       </c>
       <c r="C63">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D63" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E63" t="str">
-        <v>N (6°)</v>
+        <v>SE (150°)</v>
       </c>
       <c r="F63">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="G63">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -1789,22 +1789,22 @@
         <v>Senin 29/09/2025 10:00</v>
       </c>
       <c r="B66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D66" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E66" t="str">
-        <v>N (6°)</v>
+        <v>NE (90°)</v>
       </c>
       <c r="F66">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -1888,19 +1888,19 @@
         <v>30</v>
       </c>
       <c r="C69">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D69" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E69" t="str">
-        <v>SE (160°)</v>
+        <v>SE (148°)</v>
       </c>
       <c r="F69">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -1984,19 +1984,19 @@
         <v>28</v>
       </c>
       <c r="C72">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E72" t="str">
-        <v>SE (160°)</v>
+        <v>SE (148°)</v>
       </c>
       <c r="F72">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="G72">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -2069,6 +2069,258 @@
         <v/>
       </c>
       <c r="J74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Selasa 30/09/2025 07:00</v>
+      </c>
+      <c r="B75">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>90</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E75" t="str">
+        <v>NE (65°)</v>
+      </c>
+      <c r="F75">
+        <v>6.8</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Selasa 30/09/2025 08:00</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E76" t="str">
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Selasa 30/09/2025 09:00</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Selasa 30/09/2025 10:00</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Selasa 30/09/2025 11:00</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E79" t="str">
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Selasa 30/09/2025 12:00</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Selasa 30/09/2025 13:00</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Selasa 30/09/2025 14:00</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Selasa 30/09/2025 15:00</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Selasa 30/09/2025 16:00</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Selasa 30/09/2025 17:00</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Selasa 30/09/2025 18:00</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
         <v/>
       </c>
     </row>
@@ -2078,7 +2330,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J86"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1295,16 +1295,16 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E29" t="str">
-        <v>E (100°)</v>
+        <v>E (115°)</v>
       </c>
       <c r="F29">
-        <v>17.6</v>
+        <v>15.5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>Minggu 28/09/2025 12:00</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D32" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E32" t="str">
-        <v>E (110°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F32">
-        <v>17.6</v>
+        <v>15.5</v>
       </c>
       <c r="G32">
         <v>1.3</v>
@@ -1448,22 +1448,22 @@
         <v>Minggu 28/09/2025 15:00</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>73</v>
       </c>
       <c r="D35" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E35" t="str">
-        <v>E (106°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F35">
-        <v>16.6</v>
+        <v>13.9</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -1529,19 +1529,19 @@
         <v>27</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E38" t="str">
-        <v>E (92°)</v>
+        <v>NE (89°)</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="G38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -1757,22 +1757,22 @@
         <v>Senin 29/09/2025 09:00</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D65" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E65" t="str">
-        <v>N (6°)</v>
+        <v>NE (90°)</v>
       </c>
       <c r="F65">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -1856,19 +1856,19 @@
         <v>30</v>
       </c>
       <c r="C68">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E68" t="str">
-        <v>SE (160°)</v>
+        <v>SE (148°)</v>
       </c>
       <c r="F68">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="G68">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -1949,22 +1949,22 @@
         <v>Senin 29/09/2025 15:00</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D71" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E71" t="str">
-        <v>SE (160°)</v>
+        <v>SE (148°)</v>
       </c>
       <c r="F71">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="G71">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -2051,16 +2051,16 @@
         <v>85</v>
       </c>
       <c r="D74" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E74" t="str">
-        <v>NE (80°)</v>
+        <v>E (102°)</v>
       </c>
       <c r="F74">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -2128,11 +2128,23 @@
       <c r="A77" t="str">
         <v>Selasa 30/09/2025 09:00</v>
       </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>71</v>
+      </c>
       <c r="D77" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E77" t="str">
-        <v/>
+        <v>NE (65°)</v>
+      </c>
+      <c r="F77">
+        <v>6.8</v>
+      </c>
+      <c r="G77">
+        <v>0.2</v>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -2188,11 +2200,23 @@
       <c r="A80" t="str">
         <v>Selasa 30/09/2025 12:00</v>
       </c>
+      <c r="B80">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>66</v>
+      </c>
       <c r="D80" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E80" t="str">
-        <v/>
+        <v>E (117°)</v>
+      </c>
+      <c r="F80">
+        <v>12.4</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -2248,11 +2272,23 @@
       <c r="A83" t="str">
         <v>Selasa 30/09/2025 15:00</v>
       </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
       <c r="D83" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E83" t="str">
-        <v/>
+        <v>E (117°)</v>
+      </c>
+      <c r="F83">
+        <v>12.4</v>
+      </c>
+      <c r="G83">
+        <v>0.9</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -2308,11 +2344,23 @@
       <c r="A86" t="str">
         <v>Selasa 30/09/2025 18:00</v>
       </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>89</v>
+      </c>
       <c r="D86" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E86" t="str">
-        <v/>
+        <v>SE (175°)</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0.9</v>
       </c>
       <c r="H86" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1318,19 +1318,19 @@
         <v>Minggu 28/09/2025 10:00</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E30" t="str">
-        <v>E (115°)</v>
+        <v>E (109°)</v>
       </c>
       <c r="F30">
-        <v>15.5</v>
+        <v>17.1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1396,22 +1396,22 @@
         <v>Minggu 28/09/2025 13:00</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E33" t="str">
         <v>E (114°)</v>
       </c>
       <c r="F33">
-        <v>15.5</v>
+        <v>17.1</v>
       </c>
       <c r="G33">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -1477,19 +1477,19 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E36" t="str">
-        <v>E (114°)</v>
+        <v>E (117°)</v>
       </c>
       <c r="F36">
-        <v>13.9</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -1702,13 +1702,13 @@
         <v>Hujan Petir</v>
       </c>
       <c r="E63" t="str">
-        <v>SE (150°)</v>
+        <v>SW (264°)</v>
       </c>
       <c r="F63">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="G63">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -1792,16 +1792,16 @@
         <v>28</v>
       </c>
       <c r="C66">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D66" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E66" t="str">
-        <v>NE (90°)</v>
+        <v>E (127°)</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="G66">
         <v>1.3</v>
@@ -1888,16 +1888,16 @@
         <v>30</v>
       </c>
       <c r="C69">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D69" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E69" t="str">
-        <v>SE (148°)</v>
+        <v>E (124°)</v>
       </c>
       <c r="F69">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>76</v>
       </c>
       <c r="D72" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E72" t="str">
-        <v>SE (148°)</v>
+        <v>E (135°)</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="G72">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -2077,19 +2077,19 @@
         <v>Selasa 30/09/2025 07:00</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D75" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E75" t="str">
-        <v>NE (65°)</v>
+        <v>NE (78°)</v>
       </c>
       <c r="F75">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2160,11 +2160,23 @@
       <c r="A78" t="str">
         <v>Selasa 30/09/2025 10:00</v>
       </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>69</v>
+      </c>
       <c r="D78" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E78" t="str">
-        <v/>
+        <v>NE (78°)</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>1.2</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -2232,11 +2244,23 @@
       <c r="A81" t="str">
         <v>Selasa 30/09/2025 13:00</v>
       </c>
+      <c r="B81">
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>77</v>
+      </c>
       <c r="D81" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E81" t="str">
-        <v/>
+        <v>E (113°)</v>
+      </c>
+      <c r="F81">
+        <v>10.5</v>
+      </c>
+      <c r="G81">
+        <v>1.2</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -2304,11 +2328,23 @@
       <c r="A84" t="str">
         <v>Selasa 30/09/2025 16:00</v>
       </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>85</v>
+      </c>
       <c r="D84" t="str">
-        <v>Tidak ada data</v>
+        <v>Petir</v>
       </c>
       <c r="E84" t="str">
-        <v/>
+        <v>E (113°)</v>
+      </c>
+      <c r="F84">
+        <v>10.5</v>
+      </c>
+      <c r="G84">
+        <v>0.3</v>
       </c>
       <c r="H84" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1344,22 +1344,22 @@
         <v>Minggu 28/09/2025 11:00</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D31" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E31" t="str">
-        <v>E (103°)</v>
+        <v>E (109°)</v>
       </c>
       <c r="F31">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -1422,22 +1422,22 @@
         <v>Minggu 28/09/2025 14:00</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D34" t="str">
-        <v>Hujan Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E34" t="str">
-        <v>E (104°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F34">
-        <v>15.2</v>
+        <v>17.1</v>
       </c>
       <c r="G34">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -1503,16 +1503,16 @@
         <v>28</v>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E37" t="str">
-        <v>E (105°)</v>
+        <v>E (117°)</v>
       </c>
       <c r="F37">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1725,22 +1725,22 @@
         <v>Senin 29/09/2025 08:00</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D64" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E64" t="str">
-        <v>N (31°)</v>
+        <v>SW (264°)</v>
       </c>
       <c r="F64">
-        <v>9.2</v>
+        <v>4.1</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="str">
         <v/>
@@ -1821,22 +1821,22 @@
         <v>Senin 29/09/2025 11:00</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D67" t="str">
         <v>Berawan</v>
       </c>
       <c r="E67" t="str">
-        <v>S (206°)</v>
+        <v>E (127°)</v>
       </c>
       <c r="F67">
-        <v>9.8</v>
+        <v>8.5</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -1917,22 +1917,22 @@
         <v>Senin 29/09/2025 14:00</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D70" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E70" t="str">
-        <v>S (206°)</v>
+        <v>E (124°)</v>
       </c>
       <c r="F70">
-        <v>9.8</v>
+        <v>9.5</v>
       </c>
       <c r="G70">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -2013,22 +2013,22 @@
         <v>Senin 29/09/2025 17:00</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D73" t="str">
-        <v>Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E73" t="str">
-        <v>NE (50°)</v>
+        <v>E (135°)</v>
       </c>
       <c r="F73">
-        <v>1.8</v>
+        <v>12.1</v>
       </c>
       <c r="G73">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -2108,11 +2108,23 @@
       <c r="A76" t="str">
         <v>Selasa 30/09/2025 08:00</v>
       </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>82</v>
+      </c>
       <c r="D76" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E76" t="str">
-        <v/>
+        <v>NE (78°)</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1.2</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -2192,11 +2204,23 @@
       <c r="A79" t="str">
         <v>Selasa 30/09/2025 11:00</v>
       </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>66</v>
+      </c>
       <c r="D79" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E79" t="str">
-        <v/>
+        <v>E (113°)</v>
+      </c>
+      <c r="F79">
+        <v>10.5</v>
+      </c>
+      <c r="G79">
+        <v>1.2</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -2276,11 +2300,23 @@
       <c r="A82" t="str">
         <v>Selasa 30/09/2025 14:00</v>
       </c>
+      <c r="B82">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>77</v>
+      </c>
       <c r="D82" t="str">
-        <v>Tidak ada data</v>
+        <v>Petir</v>
       </c>
       <c r="E82" t="str">
-        <v/>
+        <v>E (113°)</v>
+      </c>
+      <c r="F82">
+        <v>10.5</v>
+      </c>
+      <c r="G82">
+        <v>0.3</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -2360,11 +2396,23 @@
       <c r="A85" t="str">
         <v>Selasa 30/09/2025 17:00</v>
       </c>
+      <c r="B85">
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <v>89</v>
+      </c>
       <c r="D85" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E85" t="str">
-        <v/>
+        <v>E (103°)</v>
+      </c>
+      <c r="F85">
+        <v>7.4</v>
+      </c>
+      <c r="G85">
+        <v>0.3</v>
       </c>
       <c r="H85" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1693,22 +1693,22 @@
         <v>Senin 29/09/2025 07:00</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D63" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E63" t="str">
-        <v>SW (264°)</v>
+        <v>E (90°)</v>
       </c>
       <c r="F63">
-        <v>4.1</v>
+        <v>10.3</v>
       </c>
       <c r="G63">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -1757,22 +1757,22 @@
         <v>Senin 29/09/2025 09:00</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C65">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D65" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E65" t="str">
-        <v>NE (90°)</v>
+        <v>E (95°)</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -1789,22 +1789,22 @@
         <v>Senin 29/09/2025 10:00</v>
       </c>
       <c r="B66">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D66" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E66" t="str">
-        <v>E (127°)</v>
+        <v>E (95°)</v>
       </c>
       <c r="F66">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -1853,22 +1853,22 @@
         <v>Senin 29/09/2025 12:00</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E68" t="str">
-        <v>SE (148°)</v>
+        <v>E (133°)</v>
       </c>
       <c r="F68">
-        <v>11.3</v>
+        <v>1.4</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -1885,22 +1885,22 @@
         <v>Senin 29/09/2025 13:00</v>
       </c>
       <c r="B69">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E69" t="str">
-        <v>E (124°)</v>
+        <v>E (133°)</v>
       </c>
       <c r="F69">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -1952,19 +1952,19 @@
         <v>28</v>
       </c>
       <c r="C71">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D71" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E71" t="str">
-        <v>SE (148°)</v>
+        <v>E (123°)</v>
       </c>
       <c r="F71">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="G71">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -1981,22 +1981,22 @@
         <v>Senin 29/09/2025 16:00</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D72" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E72" t="str">
-        <v>E (135°)</v>
+        <v>E (123°)</v>
       </c>
       <c r="F72">
-        <v>12.1</v>
+        <v>7.6</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -2048,16 +2048,16 @@
         <v>26</v>
       </c>
       <c r="C74">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D74" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E74" t="str">
-        <v>E (102°)</v>
+        <v>NE (81°)</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2077,22 +2077,22 @@
         <v>Selasa 30/09/2025 07:00</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C75">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D75" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E75" t="str">
-        <v>NE (78°)</v>
+        <v>N (38°)</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -2141,22 +2141,22 @@
         <v>Selasa 30/09/2025 09:00</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D77" t="str">
         <v>Berawan</v>
       </c>
       <c r="E77" t="str">
-        <v>NE (65°)</v>
+        <v>NE (88°)</v>
       </c>
       <c r="F77">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -2176,19 +2176,19 @@
         <v>30</v>
       </c>
       <c r="C78">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D78" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E78" t="str">
-        <v>NE (78°)</v>
+        <v>NE (88°)</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="G78">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -2243,16 +2243,16 @@
         <v>66</v>
       </c>
       <c r="D80" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E80" t="str">
-        <v>E (117°)</v>
+        <v>SE (154°)</v>
       </c>
       <c r="F80">
-        <v>12.4</v>
+        <v>8.5</v>
       </c>
       <c r="G80">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -2269,22 +2269,22 @@
         <v>Selasa 30/09/2025 13:00</v>
       </c>
       <c r="B81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D81" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E81" t="str">
-        <v>E (113°)</v>
+        <v>SE (154°)</v>
       </c>
       <c r="F81">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="G81">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -2336,19 +2336,19 @@
         <v>28</v>
       </c>
       <c r="C83">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D83" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E83" t="str">
-        <v>E (117°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F83">
-        <v>12.4</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -2365,22 +2365,22 @@
         <v>Selasa 30/09/2025 16:00</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D84" t="str">
-        <v>Petir</v>
+        <v>Cerah</v>
       </c>
       <c r="E84" t="str">
-        <v>E (113°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F84">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -2432,19 +2432,19 @@
         <v>26</v>
       </c>
       <c r="C86">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E86" t="str">
-        <v>SE (175°)</v>
+        <v>NE (90°)</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="G86">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H86" t="str">
         <v/>
@@ -2453,6 +2453,306 @@
         <v/>
       </c>
       <c r="J86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Rabu 01/10/2025 07:00</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>91</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E87" t="str">
+        <v>NE (50°)</v>
+      </c>
+      <c r="F87">
+        <v>6.3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Rabu 01/10/2025 08:00</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Rabu 01/10/2025 09:00</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <v>72</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E89" t="str">
+        <v>NE (50°)</v>
+      </c>
+      <c r="F89">
+        <v>6.3</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Rabu 01/10/2025 10:00</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Rabu 01/10/2025 11:00</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Rabu 01/10/2025 12:00</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>67</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E92" t="str">
+        <v>E (124°)</v>
+      </c>
+      <c r="F92">
+        <v>13.4</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="str">
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Rabu 01/10/2025 13:00</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Rabu 01/10/2025 14:00</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Rabu 01/10/2025 15:00</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E95" t="str">
+        <v>E (124°)</v>
+      </c>
+      <c r="F95">
+        <v>13.4</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="str">
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Rabu 01/10/2025 16:00</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Rabu 01/10/2025 17:00</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Rabu 01/10/2025 18:00</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>82</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E98" t="str">
+        <v>E (119°)</v>
+      </c>
+      <c r="F98">
+        <v>5.7</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="str">
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
         <v/>
       </c>
     </row>
@@ -2462,7 +2762,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J86"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J98"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1824,19 +1824,19 @@
         <v>29</v>
       </c>
       <c r="C67">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E67" t="str">
-        <v>E (127°)</v>
+        <v>NE (87°)</v>
       </c>
       <c r="F67">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="str">
         <v/>
@@ -1917,22 +1917,22 @@
         <v>Senin 29/09/2025 14:00</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D70" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E70" t="str">
-        <v>E (124°)</v>
+        <v>SE (150°)</v>
       </c>
       <c r="F70">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -2013,22 +2013,22 @@
         <v>Senin 29/09/2025 17:00</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D73" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E73" t="str">
-        <v>E (135°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F73">
-        <v>12.1</v>
+        <v>6.1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="str">
         <v/>
@@ -2109,22 +2109,22 @@
         <v>Selasa 30/09/2025 08:00</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76" t="str">
-        <v>Hujan Ringan</v>
+        <v>Berawan</v>
       </c>
       <c r="E76" t="str">
-        <v>NE (78°)</v>
+        <v>NE (49°)</v>
       </c>
       <c r="F76">
         <v>4</v>
       </c>
       <c r="G76">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -2205,22 +2205,22 @@
         <v>Selasa 30/09/2025 11:00</v>
       </c>
       <c r="B79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E79" t="str">
-        <v>E (113°)</v>
+        <v>NE (85°)</v>
       </c>
       <c r="F79">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="G79">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -2301,22 +2301,22 @@
         <v>Selasa 30/09/2025 14:00</v>
       </c>
       <c r="B82">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C82">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D82" t="str">
         <v>Petir</v>
       </c>
       <c r="E82" t="str">
-        <v>E (113°)</v>
+        <v>SW (262°)</v>
       </c>
       <c r="F82">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="G82">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -2397,22 +2397,22 @@
         <v>Selasa 30/09/2025 17:00</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>89</v>
       </c>
       <c r="D85" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E85" t="str">
-        <v>E (103°)</v>
+        <v>NE (53°)</v>
       </c>
       <c r="F85">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="G85">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="str">
         <v/>
@@ -2492,11 +2492,23 @@
       <c r="A88" t="str">
         <v>Rabu 01/10/2025 08:00</v>
       </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>83</v>
+      </c>
       <c r="D88" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E88" t="str">
-        <v/>
+        <v>NW (345°)</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -2564,11 +2576,23 @@
       <c r="A91" t="str">
         <v>Rabu 01/10/2025 11:00</v>
       </c>
+      <c r="B91">
+        <v>31</v>
+      </c>
+      <c r="C91">
+        <v>66</v>
+      </c>
       <c r="D91" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E91" t="str">
-        <v/>
+        <v>E (128°)</v>
+      </c>
+      <c r="F91">
+        <v>14.3</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -2636,11 +2660,23 @@
       <c r="A94" t="str">
         <v>Rabu 01/10/2025 14:00</v>
       </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>71</v>
+      </c>
       <c r="D94" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E94" t="str">
-        <v/>
+        <v>E (128°)</v>
+      </c>
+      <c r="F94">
+        <v>14.3</v>
+      </c>
+      <c r="G94">
+        <v>0.1</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -2708,11 +2744,23 @@
       <c r="A97" t="str">
         <v>Rabu 01/10/2025 17:00</v>
       </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>81</v>
+      </c>
       <c r="D97" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E97" t="str">
-        <v/>
+        <v>E (109°)</v>
+      </c>
+      <c r="F97">
+        <v>6.3</v>
+      </c>
+      <c r="G97">
+        <v>0.1</v>
       </c>
       <c r="H97" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1885,22 +1885,22 @@
         <v>Senin 29/09/2025 13:00</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D69" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E69" t="str">
-        <v>E (133°)</v>
+        <v>SE (150°)</v>
       </c>
       <c r="F69">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="G69">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -1981,22 +1981,22 @@
         <v>Senin 29/09/2025 16:00</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D72" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E72" t="str">
-        <v>E (123°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F72">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="G72">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="str">
         <v/>
@@ -2077,22 +2077,22 @@
         <v>Selasa 30/09/2025 07:00</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75">
         <v>90</v>
       </c>
       <c r="D75" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E75" t="str">
-        <v>N (38°)</v>
+        <v>NE (49°)</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -2176,19 +2176,19 @@
         <v>30</v>
       </c>
       <c r="C78">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D78" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E78" t="str">
-        <v>NE (88°)</v>
+        <v>NE (85°)</v>
       </c>
       <c r="F78">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="G78">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -2269,22 +2269,22 @@
         <v>Selasa 30/09/2025 13:00</v>
       </c>
       <c r="B81">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C81">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D81" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E81" t="str">
-        <v>SE (154°)</v>
+        <v>SW (262°)</v>
       </c>
       <c r="F81">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="G81">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -2365,22 +2365,22 @@
         <v>Selasa 30/09/2025 16:00</v>
       </c>
       <c r="B84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D84" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E84" t="str">
-        <v>E (104°)</v>
+        <v>NE (53°)</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="G84">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -2464,16 +2464,16 @@
         <v>25</v>
       </c>
       <c r="C87">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D87" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E87" t="str">
-        <v>NE (50°)</v>
+        <v>NW (345°)</v>
       </c>
       <c r="F87">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2556,11 +2556,23 @@
       <c r="A90" t="str">
         <v>Rabu 01/10/2025 10:00</v>
       </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>67</v>
+      </c>
       <c r="D90" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E90" t="str">
-        <v/>
+        <v>NW (345°)</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -2640,11 +2652,23 @@
       <c r="A93" t="str">
         <v>Rabu 01/10/2025 13:00</v>
       </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>70</v>
+      </c>
       <c r="D93" t="str">
-        <v>Tidak ada data</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E93" t="str">
-        <v/>
+        <v>E (128°)</v>
+      </c>
+      <c r="F93">
+        <v>14.3</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -2724,11 +2748,23 @@
       <c r="A96" t="str">
         <v>Rabu 01/10/2025 16:00</v>
       </c>
+      <c r="B96">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>77</v>
+      </c>
       <c r="D96" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E96" t="str">
-        <v/>
+        <v>E (128°)</v>
+      </c>
+      <c r="F96">
+        <v>14.3</v>
+      </c>
+      <c r="G96">
+        <v>0.1</v>
       </c>
       <c r="H96" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1949,22 +1949,22 @@
         <v>Senin 29/09/2025 15:00</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D71" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E71" t="str">
-        <v>E (123°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F71">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="G71">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -2045,22 +2045,22 @@
         <v>Senin 29/09/2025 18:00</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D74" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E74" t="str">
-        <v>NE (81°)</v>
+        <v>NE (57°)</v>
       </c>
       <c r="F74">
-        <v>6.5</v>
+        <v>8.3</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="str">
         <v/>
@@ -2144,19 +2144,19 @@
         <v>29</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D77" t="str">
         <v>Berawan</v>
       </c>
       <c r="E77" t="str">
-        <v>NE (88°)</v>
+        <v>NE (85°)</v>
       </c>
       <c r="F77">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="G77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="str">
         <v/>
@@ -2237,22 +2237,22 @@
         <v>Selasa 30/09/2025 12:00</v>
       </c>
       <c r="B80">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D80" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E80" t="str">
-        <v>SE (154°)</v>
+        <v>SW (262°)</v>
       </c>
       <c r="F80">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="G80">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -2333,22 +2333,22 @@
         <v>Selasa 30/09/2025 15:00</v>
       </c>
       <c r="B83">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D83" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E83" t="str">
-        <v>E (104°)</v>
+        <v>NE (53°)</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="G83">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -2429,19 +2429,19 @@
         <v>Selasa 30/09/2025 18:00</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D86" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E86" t="str">
-        <v>NE (90°)</v>
+        <v>NE (45°)</v>
       </c>
       <c r="F86">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2528,19 +2528,19 @@
         <v>29</v>
       </c>
       <c r="C89">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D89" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E89" t="str">
-        <v>NE (50°)</v>
+        <v>NW (345°)</v>
       </c>
       <c r="F89">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -2624,19 +2624,19 @@
         <v>30</v>
       </c>
       <c r="C92">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D92" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E92" t="str">
-        <v>E (124°)</v>
+        <v>E (128°)</v>
       </c>
       <c r="F92">
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -2717,22 +2717,22 @@
         <v>Rabu 01/10/2025 15:00</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D95" t="str">
         <v>Cerah</v>
       </c>
       <c r="E95" t="str">
-        <v>E (124°)</v>
+        <v>E (128°)</v>
       </c>
       <c r="F95">
-        <v>13.4</v>
+        <v>14.3</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -2813,22 +2813,22 @@
         <v>Rabu 01/10/2025 18:00</v>
       </c>
       <c r="B98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D98" t="str">
         <v>Cerah</v>
       </c>
       <c r="E98" t="str">
-        <v>E (119°)</v>
+        <v>E (109°)</v>
       </c>
       <c r="F98">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2077,22 +2077,22 @@
         <v>Selasa 30/09/2025 07:00</v>
       </c>
       <c r="B75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D75" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E75" t="str">
-        <v>NE (49°)</v>
+        <v>N (19°)</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="G75">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -2173,22 +2173,22 @@
         <v>Selasa 30/09/2025 10:00</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D78" t="str">
         <v>Berawan</v>
       </c>
       <c r="E78" t="str">
-        <v>NE (85°)</v>
+        <v>NW (347°)</v>
       </c>
       <c r="F78">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="str">
         <v/>
@@ -2269,22 +2269,22 @@
         <v>Selasa 30/09/2025 13:00</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C81">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D81" t="str">
         <v>Hujan Petir</v>
       </c>
       <c r="E81" t="str">
-        <v>SW (262°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F81">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G81">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -2365,22 +2365,22 @@
         <v>Selasa 30/09/2025 16:00</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D84" t="str">
-        <v>Berawan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E84" t="str">
-        <v>NE (53°)</v>
+        <v>NE (62°)</v>
       </c>
       <c r="F84">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="G84">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -2461,22 +2461,22 @@
         <v>Rabu 01/10/2025 07:00</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D87" t="str">
-        <v>Cerah Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E87" t="str">
-        <v>NW (345°)</v>
+        <v>S (224°)</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -2557,22 +2557,22 @@
         <v>Rabu 01/10/2025 10:00</v>
       </c>
       <c r="B90">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D90" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E90" t="str">
-        <v>NW (345°)</v>
+        <v>E (107°)</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -2656,16 +2656,16 @@
         <v>30</v>
       </c>
       <c r="C93">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D93" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E93" t="str">
-        <v>E (128°)</v>
+        <v>E (129°)</v>
       </c>
       <c r="F93">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2752,19 +2752,19 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D96" t="str">
         <v>Cerah</v>
       </c>
       <c r="E96" t="str">
-        <v>E (128°)</v>
+        <v>E (127°)</v>
       </c>
       <c r="F96">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="G96">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -2837,6 +2837,258 @@
         <v/>
       </c>
       <c r="J98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Kamis 02/10/2025 07:00</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>85</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E99" t="str">
+        <v>NE (65°)</v>
+      </c>
+      <c r="F99">
+        <v>7.9</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Kamis 02/10/2025 08:00</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Kamis 02/10/2025 09:00</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Kamis 02/10/2025 10:00</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Kamis 02/10/2025 11:00</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <v/>
+      </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Kamis 02/10/2025 12:00</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <v/>
+      </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Kamis 02/10/2025 13:00</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <v/>
+      </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Kamis 02/10/2025 14:00</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <v/>
+      </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Kamis 02/10/2025 15:00</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <v/>
+      </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Kamis 02/10/2025 16:00</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="str">
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <v/>
+      </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Kamis 02/10/2025 17:00</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="str">
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <v/>
+      </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Kamis 02/10/2025 18:00</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="str">
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <v/>
+      </c>
+      <c r="J110" t="str">
         <v/>
       </c>
     </row>
@@ -2846,7 +3098,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J98"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J110"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2109,22 +2109,22 @@
         <v>Selasa 30/09/2025 08:00</v>
       </c>
       <c r="B76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D76" t="str">
-        <v>Berawan</v>
+        <v>Petir</v>
       </c>
       <c r="E76" t="str">
-        <v>NE (49°)</v>
+        <v>N (19°)</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="str">
         <v/>
@@ -2208,19 +2208,19 @@
         <v>30</v>
       </c>
       <c r="C79">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D79" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E79" t="str">
-        <v>NE (85°)</v>
+        <v>NW (347°)</v>
       </c>
       <c r="F79">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="G79">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -2301,22 +2301,22 @@
         <v>Selasa 30/09/2025 14:00</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D82" t="str">
-        <v>Petir</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E82" t="str">
-        <v>SW (262°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F82">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G82">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -2397,19 +2397,19 @@
         <v>Selasa 30/09/2025 17:00</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D85" t="str">
-        <v>Cerah Berawan</v>
+        <v>Petir</v>
       </c>
       <c r="E85" t="str">
-        <v>NE (53°)</v>
+        <v>NE (62°)</v>
       </c>
       <c r="F85">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>Rabu 01/10/2025 08:00</v>
       </c>
       <c r="B88">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D88" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E88" t="str">
-        <v>NW (345°)</v>
+        <v>S (224°)</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -2589,19 +2589,19 @@
         <v>Rabu 01/10/2025 11:00</v>
       </c>
       <c r="B91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D91" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E91" t="str">
-        <v>E (128°)</v>
+        <v>E (107°)</v>
       </c>
       <c r="F91">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2688,19 +2688,19 @@
         <v>30</v>
       </c>
       <c r="C94">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D94" t="str">
         <v>Cerah</v>
       </c>
       <c r="E94" t="str">
-        <v>E (128°)</v>
+        <v>E (129°)</v>
       </c>
       <c r="F94">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="G94">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -2790,13 +2790,13 @@
         <v>Cerah</v>
       </c>
       <c r="E97" t="str">
-        <v>E (109°)</v>
+        <v>E (127°)</v>
       </c>
       <c r="F97">
-        <v>6.3</v>
+        <v>13.3</v>
       </c>
       <c r="G97">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -2876,11 +2876,23 @@
       <c r="A100" t="str">
         <v>Kamis 02/10/2025 08:00</v>
       </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>76</v>
+      </c>
       <c r="D100" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E100" t="str">
-        <v/>
+        <v>NE (65°)</v>
+      </c>
+      <c r="F100">
+        <v>7.9</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
       </c>
       <c r="H100" t="str">
         <v/>
@@ -2936,11 +2948,23 @@
       <c r="A103" t="str">
         <v>Kamis 02/10/2025 11:00</v>
       </c>
+      <c r="B103">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>61</v>
+      </c>
       <c r="D103" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E103" t="str">
-        <v/>
+        <v>SE (138°)</v>
+      </c>
+      <c r="F103">
+        <v>13.6</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -2996,11 +3020,23 @@
       <c r="A106" t="str">
         <v>Kamis 02/10/2025 14:00</v>
       </c>
+      <c r="B106">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>65</v>
+      </c>
       <c r="D106" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E106" t="str">
-        <v/>
+        <v>SE (138°)</v>
+      </c>
+      <c r="F106">
+        <v>13.6</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -3056,11 +3092,23 @@
       <c r="A109" t="str">
         <v>Kamis 02/10/2025 17:00</v>
       </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>78</v>
+      </c>
       <c r="D109" t="str">
-        <v>Tidak ada data</v>
+        <v>Cerah</v>
       </c>
       <c r="E109" t="str">
-        <v/>
+        <v>E (126°)</v>
+      </c>
+      <c r="F109">
+        <v>10.8</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
       </c>
       <c r="H109" t="str">
         <v/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3153,7 +3153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4170,14 +4170,2809 @@
         <v/>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Selasa 30/09/2025 07:00</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Selasa 30/09/2025 08:00</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Selasa 30/09/2025 09:00</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Selasa 30/09/2025 10:00</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E42" t="str">
+        <v>NW (347°)</v>
+      </c>
+      <c r="F42">
+        <v>5.2</v>
+      </c>
+      <c r="G42">
+        <v>1.7</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Selasa 30/09/2025 11:00</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>72</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E43" t="str">
+        <v>NW (347°)</v>
+      </c>
+      <c r="F43">
+        <v>5.2</v>
+      </c>
+      <c r="G43">
+        <v>2.7</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Selasa 30/09/2025 12:00</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>69</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E44" t="str">
+        <v>E (114°)</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>2.7</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Selasa 30/09/2025 13:00</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E45" t="str">
+        <v>E (114°)</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>2.7</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Selasa 30/09/2025 14:00</v>
+      </c>
+      <c r="B46">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>78</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E46" t="str">
+        <v>E (114°)</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>2.7</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Selasa 30/09/2025 15:00</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E47" t="str">
+        <v>NE (62°)</v>
+      </c>
+      <c r="F47">
+        <v>5.3</v>
+      </c>
+      <c r="G47">
+        <v>2.7</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Selasa 30/09/2025 16:00</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>91</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E48" t="str">
+        <v>NE (62°)</v>
+      </c>
+      <c r="F48">
+        <v>5.3</v>
+      </c>
+      <c r="G48">
+        <v>2.7</v>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Selasa 30/09/2025 17:00</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>93</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E49" t="str">
+        <v>NE (62°)</v>
+      </c>
+      <c r="F49">
+        <v>5.3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Selasa 30/09/2025 18:00</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E50" t="str">
+        <v>N (14°)</v>
+      </c>
+      <c r="F50">
+        <v>4.2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Rabu 01/10/2025 07:00</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>89</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E51" t="str">
+        <v>N (10°)</v>
+      </c>
+      <c r="F51">
+        <v>7.5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Rabu 01/10/2025 08:00</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>81</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E52" t="str">
+        <v>N (10°)</v>
+      </c>
+      <c r="F52">
+        <v>7.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Rabu 01/10/2025 09:00</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Rabu 01/10/2025 10:00</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Rabu 01/10/2025 11:00</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>66</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E55" t="str">
+        <v>NE (70°)</v>
+      </c>
+      <c r="F55">
+        <v>10.5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Rabu 01/10/2025 12:00</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Rabu 01/10/2025 13:00</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Rabu 01/10/2025 14:00</v>
+      </c>
+      <c r="B58">
+        <v>32</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Hujan Ringan</v>
+      </c>
+      <c r="E58" t="str">
+        <v>SE (160°)</v>
+      </c>
+      <c r="F58">
+        <v>18.5</v>
+      </c>
+      <c r="G58">
+        <v>1.3</v>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Rabu 01/10/2025 15:00</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Rabu 01/10/2025 16:00</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Rabu 01/10/2025 17:00</v>
+      </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>79</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E61" t="str">
+        <v>S (200°)</v>
+      </c>
+      <c r="F61">
+        <v>18.5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Rabu 01/10/2025 18:00</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Kamis 02/10/2025 07:00</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Kamis 02/10/2025 08:00</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>74</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E64" t="str">
+        <v>N (20°)</v>
+      </c>
+      <c r="F64">
+        <v>8.3</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Kamis 02/10/2025 09:00</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Kamis 02/10/2025 10:00</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Kamis 02/10/2025 11:00</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>63</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E67" t="str">
+        <v>SE (138°)</v>
+      </c>
+      <c r="F67">
+        <v>13.6</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Kamis 02/10/2025 12:00</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Kamis 02/10/2025 13:00</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Kamis 02/10/2025 14:00</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E70" t="str">
+        <v>SE (138°)</v>
+      </c>
+      <c r="F70">
+        <v>13.6</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Kamis 02/10/2025 15:00</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Kamis 02/10/2025 16:00</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Kamis 02/10/2025 17:00</v>
+      </c>
+      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>77</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E73" t="str">
+        <v>E (127°)</v>
+      </c>
+      <c r="F73">
+        <v>10.8</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Kamis 02/10/2025 18:00</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Jumat 03/10/2025 07:00</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Jumat 03/10/2025 08:00</v>
+      </c>
+      <c r="B76">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>71</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E76" t="str">
+        <v>E (103°)</v>
+      </c>
+      <c r="F76">
+        <v>5.9</v>
+      </c>
+      <c r="G76">
+        <v>0.2</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Jumat 03/10/2025 09:00</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Jumat 03/10/2025 10:00</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Jumat 03/10/2025 11:00</v>
+      </c>
+      <c r="B79">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>64</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E79" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F79">
+        <v>12.3</v>
+      </c>
+      <c r="G79">
+        <v>0.2</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Jumat 03/10/2025 12:00</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Jumat 03/10/2025 13:00</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Jumat 03/10/2025 14:00</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>64</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E82" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F82">
+        <v>12.3</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Jumat 03/10/2025 15:00</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Jumat 03/10/2025 16:00</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Jumat 03/10/2025 17:00</v>
+      </c>
+      <c r="B85">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>69</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E85" t="str">
+        <v>NE (86°)</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Jumat 03/10/2025 18:00</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Sabtu 04/10/2025 07:00</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Sabtu 04/10/2025 08:00</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>83</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E88" t="str">
+        <v>NE (81°)</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88">
+        <v>0.2</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Sabtu 04/10/2025 09:00</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Sabtu 04/10/2025 10:00</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Sabtu 04/10/2025 11:00</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Sabtu 04/10/2025 12:00</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Sabtu 04/10/2025 13:00</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Sabtu 04/10/2025 14:00</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>72</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E94" t="str">
+        <v>E (104°)</v>
+      </c>
+      <c r="F94">
+        <v>7.2</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Sabtu 04/10/2025 15:00</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Sabtu 04/10/2025 16:00</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Sabtu 04/10/2025 17:00</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Sabtu 04/10/2025 18:00</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Minggu 05/10/2025 07:00</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Minggu 05/10/2025 08:00</v>
+      </c>
+      <c r="B100">
+        <v>24</v>
+      </c>
+      <c r="C100">
+        <v>95</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Petir</v>
+      </c>
+      <c r="E100" t="str">
+        <v>N (10°)</v>
+      </c>
+      <c r="F100">
+        <v>1.1</v>
+      </c>
+      <c r="G100">
+        <v>0.3</v>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Minggu 05/10/2025 09:00</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Minggu 05/10/2025 10:00</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Minggu 05/10/2025 11:00</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <v/>
+      </c>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Minggu 05/10/2025 12:00</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <v/>
+      </c>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Minggu 05/10/2025 13:00</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <v/>
+      </c>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Minggu 05/10/2025 14:00</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106">
+        <v>72</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E106" t="str">
+        <v>E (99°)</v>
+      </c>
+      <c r="F106">
+        <v>9.5</v>
+      </c>
+      <c r="G106">
+        <v>0.3</v>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <v/>
+      </c>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Minggu 05/10/2025 15:00</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <v/>
+      </c>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Minggu 05/10/2025 16:00</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="str">
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <v/>
+      </c>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Minggu 05/10/2025 17:00</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="str">
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <v/>
+      </c>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Minggu 05/10/2025 18:00</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="str">
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <v/>
+      </c>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Senin 06/10/2025 07:00</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="str">
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <v/>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Senin 06/10/2025 08:00</v>
+      </c>
+      <c r="B112">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>95</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E112" t="str">
+        <v>SW (246°)</v>
+      </c>
+      <c r="F112">
+        <v>2.6</v>
+      </c>
+      <c r="G112">
+        <v>0.1</v>
+      </c>
+      <c r="H112" t="str">
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <v/>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Senin 06/10/2025 09:00</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="str">
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <v/>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Senin 06/10/2025 10:00</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="str">
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <v/>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Senin 06/10/2025 11:00</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E115" t="str">
+        <v/>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <v/>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Senin 06/10/2025 12:00</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="str">
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <v/>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Senin 06/10/2025 13:00</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="str">
+        <v/>
+      </c>
+      <c r="I117" t="str">
+        <v/>
+      </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Senin 06/10/2025 14:00</v>
+      </c>
+      <c r="B118">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>70</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E118" t="str">
+        <v>E (90°)</v>
+      </c>
+      <c r="F118">
+        <v>9.6</v>
+      </c>
+      <c r="G118">
+        <v>0.1</v>
+      </c>
+      <c r="H118" t="str">
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <v/>
+      </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Senin 06/10/2025 15:00</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <v/>
+      </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Senin 06/10/2025 16:00</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="str">
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <v/>
+      </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Senin 06/10/2025 17:00</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E121" t="str">
+        <v/>
+      </c>
+      <c r="H121" t="str">
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <v/>
+      </c>
+      <c r="J121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Senin 06/10/2025 18:00</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E122" t="str">
+        <v/>
+      </c>
+      <c r="H122" t="str">
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <v/>
+      </c>
+      <c r="J122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Selasa 07/10/2025 07:00</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E123" t="str">
+        <v/>
+      </c>
+      <c r="H123" t="str">
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <v/>
+      </c>
+      <c r="J123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Selasa 07/10/2025 08:00</v>
+      </c>
+      <c r="B124">
+        <v>26</v>
+      </c>
+      <c r="C124">
+        <v>87</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E124" t="str">
+        <v>NE (83°)</v>
+      </c>
+      <c r="F124">
+        <v>6.9</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="str">
+        <v/>
+      </c>
+      <c r="I124" t="str">
+        <v/>
+      </c>
+      <c r="J124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Selasa 07/10/2025 09:00</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E125" t="str">
+        <v/>
+      </c>
+      <c r="H125" t="str">
+        <v/>
+      </c>
+      <c r="I125" t="str">
+        <v/>
+      </c>
+      <c r="J125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Selasa 07/10/2025 10:00</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E126" t="str">
+        <v/>
+      </c>
+      <c r="H126" t="str">
+        <v/>
+      </c>
+      <c r="I126" t="str">
+        <v/>
+      </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Selasa 07/10/2025 11:00</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E127" t="str">
+        <v/>
+      </c>
+      <c r="H127" t="str">
+        <v/>
+      </c>
+      <c r="I127" t="str">
+        <v/>
+      </c>
+      <c r="J127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Selasa 07/10/2025 12:00</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E128" t="str">
+        <v/>
+      </c>
+      <c r="H128" t="str">
+        <v/>
+      </c>
+      <c r="I128" t="str">
+        <v/>
+      </c>
+      <c r="J128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Selasa 07/10/2025 13:00</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E129" t="str">
+        <v/>
+      </c>
+      <c r="H129" t="str">
+        <v/>
+      </c>
+      <c r="I129" t="str">
+        <v/>
+      </c>
+      <c r="J129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Selasa 07/10/2025 14:00</v>
+      </c>
+      <c r="B130">
+        <v>31</v>
+      </c>
+      <c r="C130">
+        <v>64</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E130" t="str">
+        <v>E (122°)</v>
+      </c>
+      <c r="F130">
+        <v>8.8</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="str">
+        <v/>
+      </c>
+      <c r="I130" t="str">
+        <v/>
+      </c>
+      <c r="J130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Selasa 07/10/2025 15:00</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E131" t="str">
+        <v/>
+      </c>
+      <c r="H131" t="str">
+        <v/>
+      </c>
+      <c r="I131" t="str">
+        <v/>
+      </c>
+      <c r="J131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Selasa 07/10/2025 16:00</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E132" t="str">
+        <v/>
+      </c>
+      <c r="H132" t="str">
+        <v/>
+      </c>
+      <c r="I132" t="str">
+        <v/>
+      </c>
+      <c r="J132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Selasa 07/10/2025 17:00</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E133" t="str">
+        <v/>
+      </c>
+      <c r="H133" t="str">
+        <v/>
+      </c>
+      <c r="I133" t="str">
+        <v/>
+      </c>
+      <c r="J133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Selasa 07/10/2025 18:00</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E134" t="str">
+        <v/>
+      </c>
+      <c r="H134" t="str">
+        <v/>
+      </c>
+      <c r="I134" t="str">
+        <v/>
+      </c>
+      <c r="J134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Rabu 08/10/2025 07:00</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E135" t="str">
+        <v/>
+      </c>
+      <c r="H135" t="str">
+        <v/>
+      </c>
+      <c r="I135" t="str">
+        <v/>
+      </c>
+      <c r="J135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Rabu 08/10/2025 08:00</v>
+      </c>
+      <c r="B136">
+        <v>27</v>
+      </c>
+      <c r="C136">
+        <v>85</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E136" t="str">
+        <v>NE (87°)</v>
+      </c>
+      <c r="F136">
+        <v>4.9</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="str">
+        <v/>
+      </c>
+      <c r="I136" t="str">
+        <v/>
+      </c>
+      <c r="J136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Rabu 08/10/2025 09:00</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E137" t="str">
+        <v/>
+      </c>
+      <c r="H137" t="str">
+        <v/>
+      </c>
+      <c r="I137" t="str">
+        <v/>
+      </c>
+      <c r="J137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Rabu 08/10/2025 10:00</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E138" t="str">
+        <v/>
+      </c>
+      <c r="H138" t="str">
+        <v/>
+      </c>
+      <c r="I138" t="str">
+        <v/>
+      </c>
+      <c r="J138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Rabu 08/10/2025 11:00</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E139" t="str">
+        <v/>
+      </c>
+      <c r="H139" t="str">
+        <v/>
+      </c>
+      <c r="I139" t="str">
+        <v/>
+      </c>
+      <c r="J139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Rabu 08/10/2025 12:00</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E140" t="str">
+        <v/>
+      </c>
+      <c r="H140" t="str">
+        <v/>
+      </c>
+      <c r="I140" t="str">
+        <v/>
+      </c>
+      <c r="J140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Rabu 08/10/2025 13:00</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E141" t="str">
+        <v/>
+      </c>
+      <c r="H141" t="str">
+        <v/>
+      </c>
+      <c r="I141" t="str">
+        <v/>
+      </c>
+      <c r="J141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Rabu 08/10/2025 14:00</v>
+      </c>
+      <c r="B142">
+        <v>31</v>
+      </c>
+      <c r="C142">
+        <v>59</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E142" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F142">
+        <v>9.3</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="str">
+        <v/>
+      </c>
+      <c r="I142" t="str">
+        <v/>
+      </c>
+      <c r="J142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Rabu 08/10/2025 15:00</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E143" t="str">
+        <v/>
+      </c>
+      <c r="H143" t="str">
+        <v/>
+      </c>
+      <c r="I143" t="str">
+        <v/>
+      </c>
+      <c r="J143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Rabu 08/10/2025 16:00</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E144" t="str">
+        <v/>
+      </c>
+      <c r="H144" t="str">
+        <v/>
+      </c>
+      <c r="I144" t="str">
+        <v/>
+      </c>
+      <c r="J144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Rabu 08/10/2025 17:00</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E145" t="str">
+        <v/>
+      </c>
+      <c r="H145" t="str">
+        <v/>
+      </c>
+      <c r="I145" t="str">
+        <v/>
+      </c>
+      <c r="J145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Rabu 08/10/2025 18:00</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E146" t="str">
+        <v/>
+      </c>
+      <c r="H146" t="str">
+        <v/>
+      </c>
+      <c r="I146" t="str">
+        <v/>
+      </c>
+      <c r="J146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Kamis 09/10/2025 07:00</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E147" t="str">
+        <v/>
+      </c>
+      <c r="H147" t="str">
+        <v/>
+      </c>
+      <c r="I147" t="str">
+        <v/>
+      </c>
+      <c r="J147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Kamis 09/10/2025 08:00</v>
+      </c>
+      <c r="B148">
+        <v>28</v>
+      </c>
+      <c r="C148">
+        <v>81</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E148" t="str">
+        <v>E (123°)</v>
+      </c>
+      <c r="F148">
+        <v>8.8</v>
+      </c>
+      <c r="G148">
+        <v>0.2</v>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <v/>
+      </c>
+      <c r="J148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Kamis 09/10/2025 09:00</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E149" t="str">
+        <v/>
+      </c>
+      <c r="H149" t="str">
+        <v/>
+      </c>
+      <c r="I149" t="str">
+        <v/>
+      </c>
+      <c r="J149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Kamis 09/10/2025 10:00</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E150" t="str">
+        <v/>
+      </c>
+      <c r="H150" t="str">
+        <v/>
+      </c>
+      <c r="I150" t="str">
+        <v/>
+      </c>
+      <c r="J150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Kamis 09/10/2025 11:00</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E151" t="str">
+        <v/>
+      </c>
+      <c r="H151" t="str">
+        <v/>
+      </c>
+      <c r="I151" t="str">
+        <v/>
+      </c>
+      <c r="J151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Kamis 09/10/2025 12:00</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <v/>
+      </c>
+      <c r="J152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Kamis 09/10/2025 13:00</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E153" t="str">
+        <v/>
+      </c>
+      <c r="H153" t="str">
+        <v/>
+      </c>
+      <c r="I153" t="str">
+        <v/>
+      </c>
+      <c r="J153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Kamis 09/10/2025 14:00</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E154" t="str">
+        <v/>
+      </c>
+      <c r="H154" t="str">
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <v/>
+      </c>
+      <c r="J154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Kamis 09/10/2025 15:00</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E155" t="str">
+        <v/>
+      </c>
+      <c r="H155" t="str">
+        <v/>
+      </c>
+      <c r="I155" t="str">
+        <v/>
+      </c>
+      <c r="J155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Kamis 09/10/2025 16:00</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E156" t="str">
+        <v/>
+      </c>
+      <c r="H156" t="str">
+        <v/>
+      </c>
+      <c r="I156" t="str">
+        <v/>
+      </c>
+      <c r="J156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Kamis 09/10/2025 17:00</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E157" t="str">
+        <v/>
+      </c>
+      <c r="H157" t="str">
+        <v/>
+      </c>
+      <c r="I157" t="str">
+        <v/>
+      </c>
+      <c r="J157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Kamis 09/10/2025 18:00</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E158" t="str">
+        <v/>
+      </c>
+      <c r="H158" t="str">
+        <v/>
+      </c>
+      <c r="I158" t="str">
+        <v/>
+      </c>
+      <c r="J158" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J158"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2205,10 +2205,10 @@
         <v>Selasa 30/09/2025 11:00</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D79" t="str">
         <v>Hujan Ringan</v>
@@ -2220,7 +2220,7 @@
         <v>5.2</v>
       </c>
       <c r="G79">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="str">
         <v/>
@@ -2237,22 +2237,22 @@
         <v>Selasa 30/09/2025 12:00</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D80" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E80" t="str">
-        <v>SW (262°)</v>
+        <v>E (114°)</v>
       </c>
       <c r="F80">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G80">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="str">
         <v/>
@@ -2269,13 +2269,13 @@
         <v>Selasa 30/09/2025 13:00</v>
       </c>
       <c r="B81">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D81" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E81" t="str">
         <v>E (114°)</v>
@@ -2284,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="G81">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="str">
         <v/>
@@ -2301,13 +2301,13 @@
         <v>Selasa 30/09/2025 14:00</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D82" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E82" t="str">
         <v>E (114°)</v>
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="G82">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="str">
         <v/>
@@ -2336,19 +2336,19 @@
         <v>26</v>
       </c>
       <c r="C83">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D83" t="str">
-        <v>Berawan</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E83" t="str">
-        <v>NE (53°)</v>
+        <v>NE (62°)</v>
       </c>
       <c r="F83">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="G83">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="str">
         <v/>
@@ -2365,13 +2365,13 @@
         <v>Selasa 30/09/2025 16:00</v>
       </c>
       <c r="B84">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D84" t="str">
-        <v>Hujan Petir</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E84" t="str">
         <v>NE (62°)</v>
@@ -2380,7 +2380,7 @@
         <v>5.3</v>
       </c>
       <c r="G84">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="str">
         <v/>
@@ -2397,13 +2397,13 @@
         <v>Selasa 30/09/2025 17:00</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D85" t="str">
-        <v>Petir</v>
+        <v>Berawan</v>
       </c>
       <c r="E85" t="str">
         <v>NE (62°)</v>
@@ -2429,19 +2429,19 @@
         <v>Selasa 30/09/2025 18:00</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D86" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E86" t="str">
-        <v>NE (45°)</v>
+        <v>N (14°)</v>
       </c>
       <c r="F86">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2464,19 +2464,19 @@
         <v>24</v>
       </c>
       <c r="C87">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D87" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E87" t="str">
-        <v>S (224°)</v>
+        <v>N (10°)</v>
       </c>
       <c r="F87">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G87">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -2493,22 +2493,22 @@
         <v>Rabu 01/10/2025 08:00</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C88">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D88" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E88" t="str">
-        <v>S (224°)</v>
+        <v>N (10°)</v>
       </c>
       <c r="F88">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="G88">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -2589,22 +2589,22 @@
         <v>Rabu 01/10/2025 11:00</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D91" t="str">
         <v>Cerah</v>
       </c>
       <c r="E91" t="str">
-        <v>E (107°)</v>
+        <v>NE (70°)</v>
       </c>
       <c r="F91">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -2685,22 +2685,22 @@
         <v>Rabu 01/10/2025 14:00</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C94">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D94" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E94" t="str">
-        <v>E (129°)</v>
+        <v>SE (160°)</v>
       </c>
       <c r="F94">
-        <v>14.1</v>
+        <v>18.5</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -2781,19 +2781,19 @@
         <v>Rabu 01/10/2025 17:00</v>
       </c>
       <c r="B97">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C97">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D97" t="str">
         <v>Cerah</v>
       </c>
       <c r="E97" t="str">
-        <v>E (127°)</v>
+        <v>S (200°)</v>
       </c>
       <c r="F97">
-        <v>13.3</v>
+        <v>18.5</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>Kamis 02/10/2025 08:00</v>
       </c>
       <c r="B100">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C100">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D100" t="str">
         <v>Cerah</v>
       </c>
       <c r="E100" t="str">
-        <v>NE (65°)</v>
+        <v>N (20°)</v>
       </c>
       <c r="F100">
-        <v>7.9</v>
+        <v>8.3</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         <v>Kamis 02/10/2025 11:00</v>
       </c>
       <c r="B103">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D103" t="str">
         <v>Cerah</v>
@@ -3096,13 +3096,13 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109" t="str">
         <v>Cerah</v>
       </c>
       <c r="E109" t="str">
-        <v>E (126°)</v>
+        <v>E (127°)</v>
       </c>
       <c r="F109">
         <v>10.8</v>
@@ -3137,6 +3137,1866 @@
         <v/>
       </c>
       <c r="J110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Jumat 03/10/2025 07:00</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="str">
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <v/>
+      </c>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Jumat 03/10/2025 08:00</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112">
+        <v>71</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E112" t="str">
+        <v>E (103°)</v>
+      </c>
+      <c r="F112">
+        <v>5.9</v>
+      </c>
+      <c r="G112">
+        <v>0.2</v>
+      </c>
+      <c r="H112" t="str">
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <v/>
+      </c>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Jumat 03/10/2025 09:00</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="str">
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <v/>
+      </c>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Jumat 03/10/2025 10:00</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="str">
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <v/>
+      </c>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Jumat 03/10/2025 11:00</v>
+      </c>
+      <c r="B115">
+        <v>31</v>
+      </c>
+      <c r="C115">
+        <v>64</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E115" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F115">
+        <v>12.3</v>
+      </c>
+      <c r="G115">
+        <v>0.2</v>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <v/>
+      </c>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Jumat 03/10/2025 12:00</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="str">
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <v/>
+      </c>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Jumat 03/10/2025 13:00</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="str">
+        <v/>
+      </c>
+      <c r="I117" t="str">
+        <v/>
+      </c>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Jumat 03/10/2025 14:00</v>
+      </c>
+      <c r="B118">
+        <v>30</v>
+      </c>
+      <c r="C118">
+        <v>64</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E118" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F118">
+        <v>12.3</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="str">
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <v/>
+      </c>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Jumat 03/10/2025 15:00</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <v/>
+      </c>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Jumat 03/10/2025 16:00</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="str">
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <v/>
+      </c>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Jumat 03/10/2025 17:00</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121">
+        <v>69</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E121" t="str">
+        <v>NE (86°)</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="str">
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <v/>
+      </c>
+      <c r="J121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Jumat 03/10/2025 18:00</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E122" t="str">
+        <v/>
+      </c>
+      <c r="H122" t="str">
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <v/>
+      </c>
+      <c r="J122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Sabtu 04/10/2025 07:00</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E123" t="str">
+        <v/>
+      </c>
+      <c r="H123" t="str">
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <v/>
+      </c>
+      <c r="J123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Sabtu 04/10/2025 08:00</v>
+      </c>
+      <c r="B124">
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <v>83</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E124" t="str">
+        <v>NE (81°)</v>
+      </c>
+      <c r="F124">
+        <v>15</v>
+      </c>
+      <c r="G124">
+        <v>0.2</v>
+      </c>
+      <c r="H124" t="str">
+        <v/>
+      </c>
+      <c r="I124" t="str">
+        <v/>
+      </c>
+      <c r="J124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Sabtu 04/10/2025 09:00</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E125" t="str">
+        <v/>
+      </c>
+      <c r="H125" t="str">
+        <v/>
+      </c>
+      <c r="I125" t="str">
+        <v/>
+      </c>
+      <c r="J125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Sabtu 04/10/2025 10:00</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E126" t="str">
+        <v/>
+      </c>
+      <c r="H126" t="str">
+        <v/>
+      </c>
+      <c r="I126" t="str">
+        <v/>
+      </c>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Sabtu 04/10/2025 11:00</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E127" t="str">
+        <v/>
+      </c>
+      <c r="H127" t="str">
+        <v/>
+      </c>
+      <c r="I127" t="str">
+        <v/>
+      </c>
+      <c r="J127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Sabtu 04/10/2025 12:00</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E128" t="str">
+        <v/>
+      </c>
+      <c r="H128" t="str">
+        <v/>
+      </c>
+      <c r="I128" t="str">
+        <v/>
+      </c>
+      <c r="J128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Sabtu 04/10/2025 13:00</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E129" t="str">
+        <v/>
+      </c>
+      <c r="H129" t="str">
+        <v/>
+      </c>
+      <c r="I129" t="str">
+        <v/>
+      </c>
+      <c r="J129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Sabtu 04/10/2025 14:00</v>
+      </c>
+      <c r="B130">
+        <v>29</v>
+      </c>
+      <c r="C130">
+        <v>72</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E130" t="str">
+        <v>E (104°)</v>
+      </c>
+      <c r="F130">
+        <v>7.2</v>
+      </c>
+      <c r="G130">
+        <v>0.2</v>
+      </c>
+      <c r="H130" t="str">
+        <v/>
+      </c>
+      <c r="I130" t="str">
+        <v/>
+      </c>
+      <c r="J130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Sabtu 04/10/2025 15:00</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E131" t="str">
+        <v/>
+      </c>
+      <c r="H131" t="str">
+        <v/>
+      </c>
+      <c r="I131" t="str">
+        <v/>
+      </c>
+      <c r="J131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Sabtu 04/10/2025 16:00</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E132" t="str">
+        <v/>
+      </c>
+      <c r="H132" t="str">
+        <v/>
+      </c>
+      <c r="I132" t="str">
+        <v/>
+      </c>
+      <c r="J132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Sabtu 04/10/2025 17:00</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E133" t="str">
+        <v/>
+      </c>
+      <c r="H133" t="str">
+        <v/>
+      </c>
+      <c r="I133" t="str">
+        <v/>
+      </c>
+      <c r="J133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Sabtu 04/10/2025 18:00</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E134" t="str">
+        <v/>
+      </c>
+      <c r="H134" t="str">
+        <v/>
+      </c>
+      <c r="I134" t="str">
+        <v/>
+      </c>
+      <c r="J134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Minggu 05/10/2025 07:00</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E135" t="str">
+        <v/>
+      </c>
+      <c r="H135" t="str">
+        <v/>
+      </c>
+      <c r="I135" t="str">
+        <v/>
+      </c>
+      <c r="J135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Minggu 05/10/2025 08:00</v>
+      </c>
+      <c r="B136">
+        <v>24</v>
+      </c>
+      <c r="C136">
+        <v>95</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Petir</v>
+      </c>
+      <c r="E136" t="str">
+        <v>N (10°)</v>
+      </c>
+      <c r="F136">
+        <v>1.1</v>
+      </c>
+      <c r="G136">
+        <v>0.3</v>
+      </c>
+      <c r="H136" t="str">
+        <v/>
+      </c>
+      <c r="I136" t="str">
+        <v/>
+      </c>
+      <c r="J136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Minggu 05/10/2025 09:00</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E137" t="str">
+        <v/>
+      </c>
+      <c r="H137" t="str">
+        <v/>
+      </c>
+      <c r="I137" t="str">
+        <v/>
+      </c>
+      <c r="J137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Minggu 05/10/2025 10:00</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E138" t="str">
+        <v/>
+      </c>
+      <c r="H138" t="str">
+        <v/>
+      </c>
+      <c r="I138" t="str">
+        <v/>
+      </c>
+      <c r="J138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Minggu 05/10/2025 11:00</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E139" t="str">
+        <v/>
+      </c>
+      <c r="H139" t="str">
+        <v/>
+      </c>
+      <c r="I139" t="str">
+        <v/>
+      </c>
+      <c r="J139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Minggu 05/10/2025 12:00</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E140" t="str">
+        <v/>
+      </c>
+      <c r="H140" t="str">
+        <v/>
+      </c>
+      <c r="I140" t="str">
+        <v/>
+      </c>
+      <c r="J140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Minggu 05/10/2025 13:00</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E141" t="str">
+        <v/>
+      </c>
+      <c r="H141" t="str">
+        <v/>
+      </c>
+      <c r="I141" t="str">
+        <v/>
+      </c>
+      <c r="J141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Minggu 05/10/2025 14:00</v>
+      </c>
+      <c r="B142">
+        <v>29</v>
+      </c>
+      <c r="C142">
+        <v>72</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E142" t="str">
+        <v>E (99°)</v>
+      </c>
+      <c r="F142">
+        <v>9.5</v>
+      </c>
+      <c r="G142">
+        <v>0.3</v>
+      </c>
+      <c r="H142" t="str">
+        <v/>
+      </c>
+      <c r="I142" t="str">
+        <v/>
+      </c>
+      <c r="J142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Minggu 05/10/2025 15:00</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E143" t="str">
+        <v/>
+      </c>
+      <c r="H143" t="str">
+        <v/>
+      </c>
+      <c r="I143" t="str">
+        <v/>
+      </c>
+      <c r="J143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Minggu 05/10/2025 16:00</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E144" t="str">
+        <v/>
+      </c>
+      <c r="H144" t="str">
+        <v/>
+      </c>
+      <c r="I144" t="str">
+        <v/>
+      </c>
+      <c r="J144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Minggu 05/10/2025 17:00</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E145" t="str">
+        <v/>
+      </c>
+      <c r="H145" t="str">
+        <v/>
+      </c>
+      <c r="I145" t="str">
+        <v/>
+      </c>
+      <c r="J145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Minggu 05/10/2025 18:00</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E146" t="str">
+        <v/>
+      </c>
+      <c r="H146" t="str">
+        <v/>
+      </c>
+      <c r="I146" t="str">
+        <v/>
+      </c>
+      <c r="J146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Senin 06/10/2025 07:00</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E147" t="str">
+        <v/>
+      </c>
+      <c r="H147" t="str">
+        <v/>
+      </c>
+      <c r="I147" t="str">
+        <v/>
+      </c>
+      <c r="J147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Senin 06/10/2025 08:00</v>
+      </c>
+      <c r="B148">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <v>95</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E148" t="str">
+        <v>SW (246°)</v>
+      </c>
+      <c r="F148">
+        <v>2.6</v>
+      </c>
+      <c r="G148">
+        <v>0.1</v>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <v/>
+      </c>
+      <c r="J148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Senin 06/10/2025 09:00</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E149" t="str">
+        <v/>
+      </c>
+      <c r="H149" t="str">
+        <v/>
+      </c>
+      <c r="I149" t="str">
+        <v/>
+      </c>
+      <c r="J149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Senin 06/10/2025 10:00</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E150" t="str">
+        <v/>
+      </c>
+      <c r="H150" t="str">
+        <v/>
+      </c>
+      <c r="I150" t="str">
+        <v/>
+      </c>
+      <c r="J150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Senin 06/10/2025 11:00</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E151" t="str">
+        <v/>
+      </c>
+      <c r="H151" t="str">
+        <v/>
+      </c>
+      <c r="I151" t="str">
+        <v/>
+      </c>
+      <c r="J151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Senin 06/10/2025 12:00</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <v/>
+      </c>
+      <c r="J152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Senin 06/10/2025 13:00</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E153" t="str">
+        <v/>
+      </c>
+      <c r="H153" t="str">
+        <v/>
+      </c>
+      <c r="I153" t="str">
+        <v/>
+      </c>
+      <c r="J153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Senin 06/10/2025 14:00</v>
+      </c>
+      <c r="B154">
+        <v>30</v>
+      </c>
+      <c r="C154">
+        <v>70</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E154" t="str">
+        <v>E (90°)</v>
+      </c>
+      <c r="F154">
+        <v>9.6</v>
+      </c>
+      <c r="G154">
+        <v>0.1</v>
+      </c>
+      <c r="H154" t="str">
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <v/>
+      </c>
+      <c r="J154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Senin 06/10/2025 15:00</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E155" t="str">
+        <v/>
+      </c>
+      <c r="H155" t="str">
+        <v/>
+      </c>
+      <c r="I155" t="str">
+        <v/>
+      </c>
+      <c r="J155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Senin 06/10/2025 16:00</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E156" t="str">
+        <v/>
+      </c>
+      <c r="H156" t="str">
+        <v/>
+      </c>
+      <c r="I156" t="str">
+        <v/>
+      </c>
+      <c r="J156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Senin 06/10/2025 17:00</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E157" t="str">
+        <v/>
+      </c>
+      <c r="H157" t="str">
+        <v/>
+      </c>
+      <c r="I157" t="str">
+        <v/>
+      </c>
+      <c r="J157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Senin 06/10/2025 18:00</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E158" t="str">
+        <v/>
+      </c>
+      <c r="H158" t="str">
+        <v/>
+      </c>
+      <c r="I158" t="str">
+        <v/>
+      </c>
+      <c r="J158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Selasa 07/10/2025 07:00</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E159" t="str">
+        <v/>
+      </c>
+      <c r="H159" t="str">
+        <v/>
+      </c>
+      <c r="I159" t="str">
+        <v/>
+      </c>
+      <c r="J159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Selasa 07/10/2025 08:00</v>
+      </c>
+      <c r="B160">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>87</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E160" t="str">
+        <v>NE (83°)</v>
+      </c>
+      <c r="F160">
+        <v>6.9</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="str">
+        <v/>
+      </c>
+      <c r="I160" t="str">
+        <v/>
+      </c>
+      <c r="J160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Selasa 07/10/2025 09:00</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E161" t="str">
+        <v/>
+      </c>
+      <c r="H161" t="str">
+        <v/>
+      </c>
+      <c r="I161" t="str">
+        <v/>
+      </c>
+      <c r="J161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Selasa 07/10/2025 10:00</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E162" t="str">
+        <v/>
+      </c>
+      <c r="H162" t="str">
+        <v/>
+      </c>
+      <c r="I162" t="str">
+        <v/>
+      </c>
+      <c r="J162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Selasa 07/10/2025 11:00</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E163" t="str">
+        <v/>
+      </c>
+      <c r="H163" t="str">
+        <v/>
+      </c>
+      <c r="I163" t="str">
+        <v/>
+      </c>
+      <c r="J163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Selasa 07/10/2025 12:00</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E164" t="str">
+        <v/>
+      </c>
+      <c r="H164" t="str">
+        <v/>
+      </c>
+      <c r="I164" t="str">
+        <v/>
+      </c>
+      <c r="J164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Selasa 07/10/2025 13:00</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E165" t="str">
+        <v/>
+      </c>
+      <c r="H165" t="str">
+        <v/>
+      </c>
+      <c r="I165" t="str">
+        <v/>
+      </c>
+      <c r="J165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Selasa 07/10/2025 14:00</v>
+      </c>
+      <c r="B166">
+        <v>31</v>
+      </c>
+      <c r="C166">
+        <v>64</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E166" t="str">
+        <v>E (122°)</v>
+      </c>
+      <c r="F166">
+        <v>8.8</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="str">
+        <v/>
+      </c>
+      <c r="I166" t="str">
+        <v/>
+      </c>
+      <c r="J166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Selasa 07/10/2025 15:00</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E167" t="str">
+        <v/>
+      </c>
+      <c r="H167" t="str">
+        <v/>
+      </c>
+      <c r="I167" t="str">
+        <v/>
+      </c>
+      <c r="J167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Selasa 07/10/2025 16:00</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E168" t="str">
+        <v/>
+      </c>
+      <c r="H168" t="str">
+        <v/>
+      </c>
+      <c r="I168" t="str">
+        <v/>
+      </c>
+      <c r="J168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Selasa 07/10/2025 17:00</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E169" t="str">
+        <v/>
+      </c>
+      <c r="H169" t="str">
+        <v/>
+      </c>
+      <c r="I169" t="str">
+        <v/>
+      </c>
+      <c r="J169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Selasa 07/10/2025 18:00</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E170" t="str">
+        <v/>
+      </c>
+      <c r="H170" t="str">
+        <v/>
+      </c>
+      <c r="I170" t="str">
+        <v/>
+      </c>
+      <c r="J170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Rabu 08/10/2025 07:00</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E171" t="str">
+        <v/>
+      </c>
+      <c r="H171" t="str">
+        <v/>
+      </c>
+      <c r="I171" t="str">
+        <v/>
+      </c>
+      <c r="J171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Rabu 08/10/2025 08:00</v>
+      </c>
+      <c r="B172">
+        <v>27</v>
+      </c>
+      <c r="C172">
+        <v>85</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Berawan</v>
+      </c>
+      <c r="E172" t="str">
+        <v>NE (87°)</v>
+      </c>
+      <c r="F172">
+        <v>4.9</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="str">
+        <v/>
+      </c>
+      <c r="I172" t="str">
+        <v/>
+      </c>
+      <c r="J172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Rabu 08/10/2025 09:00</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E173" t="str">
+        <v/>
+      </c>
+      <c r="H173" t="str">
+        <v/>
+      </c>
+      <c r="I173" t="str">
+        <v/>
+      </c>
+      <c r="J173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Rabu 08/10/2025 10:00</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E174" t="str">
+        <v/>
+      </c>
+      <c r="H174" t="str">
+        <v/>
+      </c>
+      <c r="I174" t="str">
+        <v/>
+      </c>
+      <c r="J174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Rabu 08/10/2025 11:00</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E175" t="str">
+        <v/>
+      </c>
+      <c r="H175" t="str">
+        <v/>
+      </c>
+      <c r="I175" t="str">
+        <v/>
+      </c>
+      <c r="J175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Rabu 08/10/2025 12:00</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E176" t="str">
+        <v/>
+      </c>
+      <c r="H176" t="str">
+        <v/>
+      </c>
+      <c r="I176" t="str">
+        <v/>
+      </c>
+      <c r="J176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Rabu 08/10/2025 13:00</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E177" t="str">
+        <v/>
+      </c>
+      <c r="H177" t="str">
+        <v/>
+      </c>
+      <c r="I177" t="str">
+        <v/>
+      </c>
+      <c r="J177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Rabu 08/10/2025 14:00</v>
+      </c>
+      <c r="B178">
+        <v>31</v>
+      </c>
+      <c r="C178">
+        <v>59</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Cerah</v>
+      </c>
+      <c r="E178" t="str">
+        <v>E (131°)</v>
+      </c>
+      <c r="F178">
+        <v>9.3</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" t="str">
+        <v/>
+      </c>
+      <c r="I178" t="str">
+        <v/>
+      </c>
+      <c r="J178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Rabu 08/10/2025 15:00</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E179" t="str">
+        <v/>
+      </c>
+      <c r="H179" t="str">
+        <v/>
+      </c>
+      <c r="I179" t="str">
+        <v/>
+      </c>
+      <c r="J179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Rabu 08/10/2025 16:00</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E180" t="str">
+        <v/>
+      </c>
+      <c r="H180" t="str">
+        <v/>
+      </c>
+      <c r="I180" t="str">
+        <v/>
+      </c>
+      <c r="J180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Rabu 08/10/2025 17:00</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E181" t="str">
+        <v/>
+      </c>
+      <c r="H181" t="str">
+        <v/>
+      </c>
+      <c r="I181" t="str">
+        <v/>
+      </c>
+      <c r="J181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Rabu 08/10/2025 18:00</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E182" t="str">
+        <v/>
+      </c>
+      <c r="H182" t="str">
+        <v/>
+      </c>
+      <c r="I182" t="str">
+        <v/>
+      </c>
+      <c r="J182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Kamis 09/10/2025 07:00</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E183" t="str">
+        <v/>
+      </c>
+      <c r="H183" t="str">
+        <v/>
+      </c>
+      <c r="I183" t="str">
+        <v/>
+      </c>
+      <c r="J183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Kamis 09/10/2025 08:00</v>
+      </c>
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <v>81</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E184" t="str">
+        <v>E (123°)</v>
+      </c>
+      <c r="F184">
+        <v>8.8</v>
+      </c>
+      <c r="G184">
+        <v>0.2</v>
+      </c>
+      <c r="H184" t="str">
+        <v/>
+      </c>
+      <c r="I184" t="str">
+        <v/>
+      </c>
+      <c r="J184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Kamis 09/10/2025 09:00</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E185" t="str">
+        <v/>
+      </c>
+      <c r="H185" t="str">
+        <v/>
+      </c>
+      <c r="I185" t="str">
+        <v/>
+      </c>
+      <c r="J185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Kamis 09/10/2025 10:00</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E186" t="str">
+        <v/>
+      </c>
+      <c r="H186" t="str">
+        <v/>
+      </c>
+      <c r="I186" t="str">
+        <v/>
+      </c>
+      <c r="J186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Kamis 09/10/2025 11:00</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E187" t="str">
+        <v/>
+      </c>
+      <c r="H187" t="str">
+        <v/>
+      </c>
+      <c r="I187" t="str">
+        <v/>
+      </c>
+      <c r="J187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Kamis 09/10/2025 12:00</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E188" t="str">
+        <v/>
+      </c>
+      <c r="H188" t="str">
+        <v/>
+      </c>
+      <c r="I188" t="str">
+        <v/>
+      </c>
+      <c r="J188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Kamis 09/10/2025 13:00</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E189" t="str">
+        <v/>
+      </c>
+      <c r="H189" t="str">
+        <v/>
+      </c>
+      <c r="I189" t="str">
+        <v/>
+      </c>
+      <c r="J189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Kamis 09/10/2025 14:00</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E190" t="str">
+        <v/>
+      </c>
+      <c r="H190" t="str">
+        <v/>
+      </c>
+      <c r="I190" t="str">
+        <v/>
+      </c>
+      <c r="J190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Kamis 09/10/2025 15:00</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E191" t="str">
+        <v/>
+      </c>
+      <c r="H191" t="str">
+        <v/>
+      </c>
+      <c r="I191" t="str">
+        <v/>
+      </c>
+      <c r="J191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Kamis 09/10/2025 16:00</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E192" t="str">
+        <v/>
+      </c>
+      <c r="H192" t="str">
+        <v/>
+      </c>
+      <c r="I192" t="str">
+        <v/>
+      </c>
+      <c r="J192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Kamis 09/10/2025 17:00</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E193" t="str">
+        <v/>
+      </c>
+      <c r="H193" t="str">
+        <v/>
+      </c>
+      <c r="I193" t="str">
+        <v/>
+      </c>
+      <c r="J193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Kamis 09/10/2025 18:00</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E194" t="str">
+        <v/>
+      </c>
+      <c r="H194" t="str">
+        <v/>
+      </c>
+      <c r="I194" t="str">
+        <v/>
+      </c>
+      <c r="J194" t="str">
         <v/>
       </c>
     </row>
@@ -3146,7 +5006,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J194"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2464,16 +2464,16 @@
         <v>24</v>
       </c>
       <c r="C87">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D87" t="str">
         <v>Cerah</v>
       </c>
       <c r="E87" t="str">
-        <v>N (10°)</v>
+        <v>NW (322°)</v>
       </c>
       <c r="F87">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>27</v>
       </c>
       <c r="C88">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D88" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E88" t="str">
-        <v>N (10°)</v>
+        <v>NW (322°)</v>
       </c>
       <c r="F88">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -2589,22 +2589,22 @@
         <v>Rabu 01/10/2025 11:00</v>
       </c>
       <c r="B91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D91" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E91" t="str">
-        <v>NE (70°)</v>
+        <v>SE (135°)</v>
       </c>
       <c r="F91">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -2685,22 +2685,22 @@
         <v>Rabu 01/10/2025 14:00</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C94">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D94" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah</v>
       </c>
       <c r="E94" t="str">
-        <v>SE (160°)</v>
+        <v>SE (144°)</v>
       </c>
       <c r="F94">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="G94">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -2781,7 +2781,7 @@
         <v>Rabu 01/10/2025 17:00</v>
       </c>
       <c r="B97">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <v>79</v>
@@ -2790,10 +2790,10 @@
         <v>Cerah</v>
       </c>
       <c r="E97" t="str">
-        <v>S (200°)</v>
+        <v>SE (141°)</v>
       </c>
       <c r="F97">
-        <v>18.5</v>
+        <v>10.1</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>Kamis 02/10/2025 08:00</v>
       </c>
       <c r="B100">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D100" t="str">
         <v>Cerah</v>
       </c>
       <c r="E100" t="str">
-        <v>N (20°)</v>
+        <v>NE (53°)</v>
       </c>
       <c r="F100">
-        <v>8.3</v>
+        <v>5.6</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>Kamis 02/10/2025 11:00</v>
       </c>
       <c r="B103">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103">
         <v>63</v>
@@ -2958,10 +2958,10 @@
         <v>Cerah</v>
       </c>
       <c r="E103" t="str">
-        <v>SE (138°)</v>
+        <v>E (124°)</v>
       </c>
       <c r="F103">
-        <v>13.6</v>
+        <v>11.5</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>Cerah</v>
       </c>
       <c r="E106" t="str">
-        <v>SE (138°)</v>
+        <v>SE (139°)</v>
       </c>
       <c r="F106">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3096,16 +3096,16 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" t="str">
         <v>Cerah</v>
       </c>
       <c r="E109" t="str">
-        <v>E (127°)</v>
+        <v>SE (137°)</v>
       </c>
       <c r="F109">
-        <v>10.8</v>
+        <v>12.7</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3168,19 +3168,19 @@
         <v>29</v>
       </c>
       <c r="C112">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D112" t="str">
         <v>Cerah</v>
       </c>
       <c r="E112" t="str">
-        <v>E (103°)</v>
+        <v>NE (88°)</v>
       </c>
       <c r="F112">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="G112">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="str">
         <v/>
@@ -3240,19 +3240,19 @@
         <v>31</v>
       </c>
       <c r="C115">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D115" t="str">
         <v>Cerah</v>
       </c>
       <c r="E115" t="str">
-        <v>E (131°)</v>
+        <v>E (130°)</v>
       </c>
       <c r="F115">
-        <v>12.3</v>
+        <v>16.1</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H115" t="str">
         <v/>
@@ -3312,16 +3312,16 @@
         <v>30</v>
       </c>
       <c r="C118">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D118" t="str">
         <v>Cerah</v>
       </c>
       <c r="E118" t="str">
-        <v>E (131°)</v>
+        <v>E (130°)</v>
       </c>
       <c r="F118">
-        <v>12.3</v>
+        <v>16.1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3381,19 +3381,19 @@
         <v>Jumat 03/10/2025 17:00</v>
       </c>
       <c r="B121">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D121" t="str">
         <v>Cerah</v>
       </c>
       <c r="E121" t="str">
-        <v>NE (86°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F121">
-        <v>14</v>
+        <v>9.7</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3456,19 +3456,19 @@
         <v>27</v>
       </c>
       <c r="C124">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D124" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E124" t="str">
-        <v>NE (81°)</v>
+        <v>NE (77°)</v>
       </c>
       <c r="F124">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H124" t="str">
         <v/>
@@ -3585,22 +3585,22 @@
         <v>Sabtu 04/10/2025 14:00</v>
       </c>
       <c r="B130">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C130">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D130" t="str">
         <v>Berawan</v>
       </c>
       <c r="E130" t="str">
-        <v>E (104°)</v>
+        <v>E (117°)</v>
       </c>
       <c r="F130">
-        <v>7.2</v>
+        <v>13.1</v>
       </c>
       <c r="G130">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="str">
         <v/>
@@ -3717,22 +3717,22 @@
         <v>Minggu 05/10/2025 08:00</v>
       </c>
       <c r="B136">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D136" t="str">
         <v>Petir</v>
       </c>
       <c r="E136" t="str">
-        <v>N (10°)</v>
+        <v>N (19°)</v>
       </c>
       <c r="F136">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="G136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="str">
         <v/>
@@ -3852,19 +3852,19 @@
         <v>29</v>
       </c>
       <c r="C142">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D142" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E142" t="str">
-        <v>E (99°)</v>
+        <v>NE (87°)</v>
       </c>
       <c r="F142">
-        <v>9.5</v>
+        <v>9.2</v>
       </c>
       <c r="G142">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="str">
         <v/>
@@ -3981,19 +3981,19 @@
         <v>Senin 06/10/2025 08:00</v>
       </c>
       <c r="B148">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C148">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D148" t="str">
         <v>Berawan</v>
       </c>
       <c r="E148" t="str">
-        <v>SW (246°)</v>
+        <v>NW (315°)</v>
       </c>
       <c r="F148">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="G148">
         <v>0.1</v>
@@ -4113,19 +4113,19 @@
         <v>Senin 06/10/2025 14:00</v>
       </c>
       <c r="B154">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C154">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D154" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E154" t="str">
-        <v>E (90°)</v>
+        <v>E (97°)</v>
       </c>
       <c r="F154">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="G154">
         <v>0.1</v>
@@ -4245,19 +4245,19 @@
         <v>Selasa 07/10/2025 08:00</v>
       </c>
       <c r="B160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D160" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E160" t="str">
-        <v>NE (83°)</v>
+        <v>NE (88°)</v>
       </c>
       <c r="F160">
-        <v>6.9</v>
+        <v>10.6</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4377,19 +4377,19 @@
         <v>Selasa 07/10/2025 14:00</v>
       </c>
       <c r="B166">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C166">
         <v>64</v>
       </c>
       <c r="D166" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E166" t="str">
-        <v>E (122°)</v>
+        <v>E (108°)</v>
       </c>
       <c r="F166">
-        <v>8.8</v>
+        <v>9.7</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>27</v>
       </c>
       <c r="C172">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D172" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E172" t="str">
-        <v>NE (87°)</v>
+        <v>NE (60°)</v>
       </c>
       <c r="F172">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4644,16 +4644,16 @@
         <v>31</v>
       </c>
       <c r="C178">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D178" t="str">
         <v>Cerah</v>
       </c>
       <c r="E178" t="str">
-        <v>E (131°)</v>
+        <v>E (110°)</v>
       </c>
       <c r="F178">
-        <v>9.3</v>
+        <v>7.1</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -4779,13 +4779,13 @@
         <v>81</v>
       </c>
       <c r="D184" t="str">
-        <v>Cerah Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E184" t="str">
-        <v>E (123°)</v>
+        <v>E (119°)</v>
       </c>
       <c r="F184">
-        <v>8.8</v>
+        <v>4.3</v>
       </c>
       <c r="G184">
         <v>0.2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2525,22 +2525,22 @@
         <v>Rabu 01/10/2025 09:00</v>
       </c>
       <c r="B89">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D89" t="str">
-        <v>Hujan Ringan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E89" t="str">
-        <v>NW (345°)</v>
+        <v>SE (135°)</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="str">
         <v/>
@@ -2566,13 +2566,13 @@
         <v>Cerah</v>
       </c>
       <c r="E90" t="str">
-        <v>E (107°)</v>
+        <v>SE (135°)</v>
       </c>
       <c r="F90">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="G90">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="str">
         <v/>
@@ -2624,19 +2624,19 @@
         <v>30</v>
       </c>
       <c r="C92">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D92" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E92" t="str">
-        <v>E (128°)</v>
+        <v>SE (144°)</v>
       </c>
       <c r="F92">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -2656,19 +2656,19 @@
         <v>30</v>
       </c>
       <c r="C93">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E93" t="str">
-        <v>E (129°)</v>
+        <v>SE (144°)</v>
       </c>
       <c r="F93">
-        <v>14.1</v>
+        <v>13</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -2720,19 +2720,19 @@
         <v>29</v>
       </c>
       <c r="C95">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D95" t="str">
         <v>Cerah</v>
       </c>
       <c r="E95" t="str">
-        <v>E (128°)</v>
+        <v>SE (141°)</v>
       </c>
       <c r="F95">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="G95">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -2752,19 +2752,19 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D96" t="str">
         <v>Cerah</v>
       </c>
       <c r="E96" t="str">
-        <v>E (127°)</v>
+        <v>SE (141°)</v>
       </c>
       <c r="F96">
-        <v>13.3</v>
+        <v>10.1</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -2822,13 +2822,13 @@
         <v>Cerah</v>
       </c>
       <c r="E98" t="str">
-        <v>E (109°)</v>
+        <v>E (118°)</v>
       </c>
       <c r="F98">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="G98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -2848,16 +2848,16 @@
         <v>27</v>
       </c>
       <c r="C99">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D99" t="str">
         <v>Cerah</v>
       </c>
       <c r="E99" t="str">
-        <v>NE (65°)</v>
+        <v>NE (53°)</v>
       </c>
       <c r="F99">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3524,11 +3524,23 @@
       <c r="A127" t="str">
         <v>Sabtu 04/10/2025 11:00</v>
       </c>
+      <c r="B127">
+        <v>29</v>
+      </c>
+      <c r="C127">
+        <v>73</v>
+      </c>
       <c r="D127" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E127" t="str">
-        <v/>
+        <v>E (117°)</v>
+      </c>
+      <c r="F127">
+        <v>13.1</v>
+      </c>
+      <c r="G127">
+        <v>0.1</v>
       </c>
       <c r="H127" t="str">
         <v/>
@@ -3656,11 +3668,23 @@
       <c r="A133" t="str">
         <v>Sabtu 04/10/2025 17:00</v>
       </c>
+      <c r="B133">
+        <v>28</v>
+      </c>
+      <c r="C133">
+        <v>74</v>
+      </c>
       <c r="D133" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E133" t="str">
-        <v/>
+        <v>E (92°)</v>
+      </c>
+      <c r="F133">
+        <v>6.2</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
       </c>
       <c r="H133" t="str">
         <v/>
@@ -4904,11 +4928,23 @@
       <c r="A190" t="str">
         <v>Kamis 09/10/2025 14:00</v>
       </c>
+      <c r="B190">
+        <v>29</v>
+      </c>
+      <c r="C190">
+        <v>73</v>
+      </c>
       <c r="D190" t="str">
-        <v>Tidak ada data</v>
+        <v>Berawan</v>
       </c>
       <c r="E190" t="str">
-        <v/>
+        <v>E (105°)</v>
+      </c>
+      <c r="F190">
+        <v>10.7</v>
+      </c>
+      <c r="G190">
+        <v>0.2</v>
       </c>
       <c r="H190" t="str">
         <v/>
@@ -4997,6 +5033,258 @@
         <v/>
       </c>
       <c r="J194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Jumat 10/10/2025 07:00</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E195" t="str">
+        <v/>
+      </c>
+      <c r="H195" t="str">
+        <v/>
+      </c>
+      <c r="I195" t="str">
+        <v/>
+      </c>
+      <c r="J195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Jumat 10/10/2025 08:00</v>
+      </c>
+      <c r="B196">
+        <v>27</v>
+      </c>
+      <c r="C196">
+        <v>83</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Cerah Berawan</v>
+      </c>
+      <c r="E196" t="str">
+        <v>E (92°)</v>
+      </c>
+      <c r="F196">
+        <v>8.3</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="str">
+        <v/>
+      </c>
+      <c r="I196" t="str">
+        <v/>
+      </c>
+      <c r="J196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Jumat 10/10/2025 09:00</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E197" t="str">
+        <v/>
+      </c>
+      <c r="H197" t="str">
+        <v/>
+      </c>
+      <c r="I197" t="str">
+        <v/>
+      </c>
+      <c r="J197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Jumat 10/10/2025 10:00</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E198" t="str">
+        <v/>
+      </c>
+      <c r="H198" t="str">
+        <v/>
+      </c>
+      <c r="I198" t="str">
+        <v/>
+      </c>
+      <c r="J198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Jumat 10/10/2025 11:00</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E199" t="str">
+        <v/>
+      </c>
+      <c r="H199" t="str">
+        <v/>
+      </c>
+      <c r="I199" t="str">
+        <v/>
+      </c>
+      <c r="J199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Jumat 10/10/2025 12:00</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E200" t="str">
+        <v/>
+      </c>
+      <c r="H200" t="str">
+        <v/>
+      </c>
+      <c r="I200" t="str">
+        <v/>
+      </c>
+      <c r="J200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Jumat 10/10/2025 13:00</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E201" t="str">
+        <v/>
+      </c>
+      <c r="H201" t="str">
+        <v/>
+      </c>
+      <c r="I201" t="str">
+        <v/>
+      </c>
+      <c r="J201" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Jumat 10/10/2025 14:00</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E202" t="str">
+        <v/>
+      </c>
+      <c r="H202" t="str">
+        <v/>
+      </c>
+      <c r="I202" t="str">
+        <v/>
+      </c>
+      <c r="J202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Jumat 10/10/2025 15:00</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E203" t="str">
+        <v/>
+      </c>
+      <c r="H203" t="str">
+        <v/>
+      </c>
+      <c r="I203" t="str">
+        <v/>
+      </c>
+      <c r="J203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Jumat 10/10/2025 16:00</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E204" t="str">
+        <v/>
+      </c>
+      <c r="H204" t="str">
+        <v/>
+      </c>
+      <c r="I204" t="str">
+        <v/>
+      </c>
+      <c r="J204" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Jumat 10/10/2025 17:00</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E205" t="str">
+        <v/>
+      </c>
+      <c r="H205" t="str">
+        <v/>
+      </c>
+      <c r="I205" t="str">
+        <v/>
+      </c>
+      <c r="J205" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Jumat 10/10/2025 18:00</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Tidak ada data</v>
+      </c>
+      <c r="E206" t="str">
+        <v/>
+      </c>
+      <c r="H206" t="str">
+        <v/>
+      </c>
+      <c r="I206" t="str">
+        <v/>
+      </c>
+      <c r="J206" t="str">
         <v/>
       </c>
     </row>
@@ -5006,7 +5294,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J206"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2589,22 +2589,22 @@
         <v>Rabu 01/10/2025 11:00</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D91" t="str">
         <v>Hujan Ringan</v>
       </c>
       <c r="E91" t="str">
-        <v>SE (135°)</v>
+        <v>S (180°)</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="G91">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="str">
         <v/>
@@ -2621,22 +2621,22 @@
         <v>Rabu 01/10/2025 12:00</v>
       </c>
       <c r="B92">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C92">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D92" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E92" t="str">
-        <v>SE (144°)</v>
+        <v>SE (159°)</v>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>6.1</v>
       </c>
       <c r="G92">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="str">
         <v/>
@@ -2653,22 +2653,22 @@
         <v>Rabu 01/10/2025 13:00</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D93" t="str">
-        <v>Hujan Ringan</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E93" t="str">
-        <v>SE (144°)</v>
+        <v>SE (159°)</v>
       </c>
       <c r="F93">
-        <v>13</v>
+        <v>6.1</v>
       </c>
       <c r="G93">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="str">
         <v/>
@@ -2685,22 +2685,22 @@
         <v>Rabu 01/10/2025 14:00</v>
       </c>
       <c r="B94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D94" t="str">
-        <v>Cerah</v>
+        <v>Hujan Petir</v>
       </c>
       <c r="E94" t="str">
-        <v>SE (144°)</v>
+        <v>SE (159°)</v>
       </c>
       <c r="F94">
-        <v>13</v>
+        <v>6.1</v>
       </c>
       <c r="G94">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="str">
         <v/>
@@ -2717,22 +2717,22 @@
         <v>Rabu 01/10/2025 15:00</v>
       </c>
       <c r="B95">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C95">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D95" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E95" t="str">
-        <v>SE (141°)</v>
+        <v>SE (139°)</v>
       </c>
       <c r="F95">
-        <v>10.1</v>
+        <v>7.7</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -2749,22 +2749,22 @@
         <v>Rabu 01/10/2025 16:00</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D96" t="str">
-        <v>Cerah</v>
+        <v>Hujan Ringan</v>
       </c>
       <c r="E96" t="str">
-        <v>SE (141°)</v>
+        <v>SE (139°)</v>
       </c>
       <c r="F96">
-        <v>10.1</v>
+        <v>7.7</v>
       </c>
       <c r="G96">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -2784,16 +2784,16 @@
         <v>27</v>
       </c>
       <c r="C97">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D97" t="str">
-        <v>Cerah</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E97" t="str">
-        <v>SE (141°)</v>
+        <v>SE (139°)</v>
       </c>
       <c r="F97">
-        <v>10.1</v>
+        <v>7.7</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2816,16 +2816,16 @@
         <v>26</v>
       </c>
       <c r="C98">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D98" t="str">
         <v>Cerah</v>
       </c>
       <c r="E98" t="str">
-        <v>E (118°)</v>
+        <v>NE (73°)</v>
       </c>
       <c r="F98">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>Kamis 02/10/2025 07:00</v>
       </c>
       <c r="B99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D99" t="str">
         <v>Cerah</v>
@@ -2857,7 +2857,7 @@
         <v>NE (53°)</v>
       </c>
       <c r="F99">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>28</v>
       </c>
       <c r="C100">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D100" t="str">
         <v>Cerah</v>
@@ -2889,7 +2889,7 @@
         <v>NE (53°)</v>
       </c>
       <c r="F100">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         <v>Kamis 02/10/2025 11:00</v>
       </c>
       <c r="B103">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C103">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D103" t="str">
         <v>Cerah</v>
       </c>
       <c r="E103" t="str">
-        <v>E (124°)</v>
+        <v>E (116°)</v>
       </c>
       <c r="F103">
-        <v>11.5</v>
+        <v>9.2</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H103" t="str">
         <v/>
@@ -3021,19 +3021,19 @@
         <v>Kamis 02/10/2025 14:00</v>
       </c>
       <c r="B106">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C106">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D106" t="str">
         <v>Cerah</v>
       </c>
       <c r="E106" t="str">
-        <v>SE (139°)</v>
+        <v>SE (144°)</v>
       </c>
       <c r="F106">
-        <v>13.9</v>
+        <v>11.6</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         <v>Kamis 02/10/2025 17:00</v>
       </c>
       <c r="B109">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D109" t="str">
         <v>Cerah</v>
       </c>
       <c r="E109" t="str">
-        <v>SE (137°)</v>
+        <v>SE (151°)</v>
       </c>
       <c r="F109">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3168,16 +3168,16 @@
         <v>29</v>
       </c>
       <c r="C112">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D112" t="str">
         <v>Cerah</v>
       </c>
       <c r="E112" t="str">
-        <v>NE (88°)</v>
+        <v>E (116°)</v>
       </c>
       <c r="F112">
-        <v>6.4</v>
+        <v>8.3</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>63</v>
       </c>
       <c r="D115" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E115" t="str">
-        <v>E (130°)</v>
+        <v>E (135°)</v>
       </c>
       <c r="F115">
         <v>16.1</v>
@@ -3318,7 +3318,7 @@
         <v>Cerah</v>
       </c>
       <c r="E118" t="str">
-        <v>E (130°)</v>
+        <v>E (135°)</v>
       </c>
       <c r="F118">
         <v>16.1</v>
@@ -3384,16 +3384,16 @@
         <v>28</v>
       </c>
       <c r="C121">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D121" t="str">
         <v>Cerah</v>
       </c>
       <c r="E121" t="str">
-        <v>E (104°)</v>
+        <v>E (129°)</v>
       </c>
       <c r="F121">
-        <v>9.7</v>
+        <v>11.6</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3453,22 +3453,22 @@
         <v>Sabtu 04/10/2025 08:00</v>
       </c>
       <c r="B124">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C124">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D124" t="str">
         <v>Cerah Berawan</v>
       </c>
       <c r="E124" t="str">
-        <v>NE (77°)</v>
+        <v>NE (82°)</v>
       </c>
       <c r="F124">
-        <v>8.4</v>
+        <v>12.7</v>
       </c>
       <c r="G124">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="str">
         <v/>
@@ -3525,22 +3525,22 @@
         <v>Sabtu 04/10/2025 11:00</v>
       </c>
       <c r="B127">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C127">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D127" t="str">
         <v>Berawan</v>
       </c>
       <c r="E127" t="str">
-        <v>E (117°)</v>
+        <v>E (122°)</v>
       </c>
       <c r="F127">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="G127">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="str">
         <v/>
@@ -3597,22 +3597,22 @@
         <v>Sabtu 04/10/2025 14:00</v>
       </c>
       <c r="B130">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D130" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E130" t="str">
-        <v>E (117°)</v>
+        <v>E (122°)</v>
       </c>
       <c r="F130">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H130" t="str">
         <v/>
@@ -3672,19 +3672,19 @@
         <v>28</v>
       </c>
       <c r="C133">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D133" t="str">
-        <v>Berawan</v>
+        <v>Cerah Berawan</v>
       </c>
       <c r="E133" t="str">
-        <v>E (92°)</v>
+        <v>E (90°)</v>
       </c>
       <c r="F133">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H133" t="str">
         <v/>
@@ -3747,16 +3747,16 @@
         <v>98</v>
       </c>
       <c r="D136" t="str">
-        <v>Petir</v>
+        <v>Udara Kabur</v>
       </c>
       <c r="E136" t="str">
-        <v>N (19°)</v>
+        <v>NW (324°)</v>
       </c>
       <c r="F136">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="str">
         <v/>
@@ -3876,19 +3876,19 @@
         <v>29</v>
       </c>
       <c r="C142">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D142" t="str">
-        <v>Cerah</v>
+        <v>Berawan</v>
       </c>
       <c r="E142" t="str">
-        <v>NE (87°)</v>
+        <v>NE (52°)</v>
       </c>
       <c r="F142">
-        <v>9.2</v>
+        <v>7.7</v>
       </c>
       <c r="G142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H142" t="str">
         <v/>
@@ -4005,19 +4005,19 @@
         <v>Senin 06/10/2025 08:00</v>
       </c>
       <c r="B148">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C148">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D148" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E148" t="str">
-        <v>NW (315°)</v>
+        <v>NE (74°)</v>
       </c>
       <c r="F148">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="G148">
         <v>0.1</v>
@@ -4137,19 +4137,19 @@
         <v>Senin 06/10/2025 14:00</v>
       </c>
       <c r="B154">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C154">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D154" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E154" t="str">
-        <v>E (97°)</v>
+        <v>E (100°)</v>
       </c>
       <c r="F154">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="G154">
         <v>0.1</v>
@@ -4272,16 +4272,16 @@
         <v>27</v>
       </c>
       <c r="C160">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D160" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E160" t="str">
-        <v>NE (88°)</v>
+        <v>NE (76°)</v>
       </c>
       <c r="F160">
-        <v>10.6</v>
+        <v>6.9</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4401,19 +4401,19 @@
         <v>Selasa 07/10/2025 14:00</v>
       </c>
       <c r="B166">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C166">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D166" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E166" t="str">
-        <v>E (108°)</v>
+        <v>E (116°)</v>
       </c>
       <c r="F166">
-        <v>9.7</v>
+        <v>7.8</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>Rabu 08/10/2025 08:00</v>
       </c>
       <c r="B172">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C172">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D172" t="str">
         <v>Cerah</v>
       </c>
       <c r="E172" t="str">
-        <v>NE (60°)</v>
+        <v>NW (318°)</v>
       </c>
       <c r="F172">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4665,19 +4665,19 @@
         <v>Rabu 08/10/2025 14:00</v>
       </c>
       <c r="B178">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C178">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D178" t="str">
         <v>Cerah</v>
       </c>
       <c r="E178" t="str">
-        <v>E (110°)</v>
+        <v>SE (136°)</v>
       </c>
       <c r="F178">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -4797,19 +4797,19 @@
         <v>Kamis 09/10/2025 08:00</v>
       </c>
       <c r="B184">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C184">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D184" t="str">
         <v>Cerah</v>
       </c>
       <c r="E184" t="str">
-        <v>E (119°)</v>
+        <v>NE (74°)</v>
       </c>
       <c r="F184">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="G184">
         <v>0.2</v>
@@ -4929,19 +4929,19 @@
         <v>Kamis 09/10/2025 14:00</v>
       </c>
       <c r="B190">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C190">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D190" t="str">
-        <v>Berawan</v>
+        <v>Cerah</v>
       </c>
       <c r="E190" t="str">
-        <v>E (105°)</v>
+        <v>E (104°)</v>
       </c>
       <c r="F190">
-        <v>10.7</v>
+        <v>9.9</v>
       </c>
       <c r="G190">
         <v>0.2</v>
@@ -5061,22 +5061,22 @@
         <v>Jumat 10/10/2025 08:00</v>
       </c>
       <c r="B196">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C196">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D196" t="str">
-        <v>Cerah Berawan</v>
+        <v>Berawan</v>
       </c>
       <c r="E196" t="str">
-        <v>E (92°)</v>
+        <v>E (106°)</v>
       </c>
       <c r="F196">
-        <v>8.3</v>
+        <v>10.4</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H196" t="str">
         <v/>
